--- a/Analysis drafts/Miscellaneous/Approach CP und QR.xlsx
+++ b/Analysis drafts/Miscellaneous/Approach CP und QR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Studium\Master\Université de Genève\Kurse\Master thesis\Drafts\Analysis drafts\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656EBD53-59E8-428C-A8B4-D371B5CA0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521399F-CCAE-47F5-BEB5-4653C920B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{8027843B-AE8F-422B-8197-31000C3E0078}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8027843B-AE8F-422B-8197-31000C3E0078}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Again, introducing a small tolerance for the lower boundary makes sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1089,6 +1092,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,16 +1162,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,10 +1201,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,8 +1395,8 @@
       <xdr:rowOff>181610</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1891993" cy="165366"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1542,7 +1542,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1745,8 +1745,8 @@
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2763192" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1793,6 +1793,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1870,7 +1871,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4561,17 +4562,17 @@
       <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="133" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
@@ -4592,15 +4593,15 @@
       <c r="I5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="130"/>
-      <c r="C6" s="133"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="2">
         <v>2</v>
       </c>
@@ -4619,13 +4620,13 @@
       <c r="I6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="130"/>
-      <c r="C7" s="133"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="2">
         <v>3</v>
       </c>
@@ -4644,13 +4645,13 @@
       <c r="I7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="130"/>
-      <c r="C8" s="133"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="2">
         <v>4</v>
       </c>
@@ -4669,13 +4670,13 @@
       <c r="I8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
     </row>
     <row r="9" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="130"/>
-      <c r="C9" s="133"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="2">
         <v>5</v>
       </c>
@@ -4694,13 +4695,13 @@
       <c r="I9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
     </row>
     <row r="10" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="130"/>
-      <c r="C10" s="133"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="2">
         <v>6</v>
       </c>
@@ -4719,13 +4720,13 @@
       <c r="I10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
     </row>
     <row r="11" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="130"/>
-      <c r="C11" s="133"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="2">
         <v>7</v>
       </c>
@@ -4744,13 +4745,13 @@
       <c r="I11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
     </row>
     <row r="12" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="130"/>
-      <c r="C12" s="133"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="2">
         <v>8</v>
       </c>
@@ -4769,13 +4770,13 @@
       <c r="I12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
     </row>
     <row r="13" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="130"/>
-      <c r="C13" s="133"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="2">
         <v>9</v>
       </c>
@@ -4794,13 +4795,13 @@
       <c r="I13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
     </row>
     <row r="14" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="130"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="2">
         <v>10</v>
       </c>
@@ -4819,13 +4820,13 @@
       <c r="I14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
     </row>
     <row r="15" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="130"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="2">
         <v>11</v>
       </c>
@@ -4844,13 +4845,13 @@
       <c r="I15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
     </row>
     <row r="16" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="130"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="2">
         <v>12</v>
       </c>
@@ -4869,13 +4870,13 @@
       <c r="I16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
     </row>
     <row r="17" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="130"/>
-      <c r="C17" s="134"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="2">
         <v>13</v>
       </c>
@@ -4894,12 +4895,12 @@
       <c r="I17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
     </row>
     <row r="18" spans="2:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="130"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4914,8 +4915,8 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="130"/>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="133" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2">
@@ -4940,18 +4941,18 @@
         <f>ABS(H19-I19)</f>
         <v>1.0699999999999998</v>
       </c>
-      <c r="K19" s="128" t="s">
+      <c r="K19" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="128"/>
+      <c r="L19" s="129"/>
       <c r="M19" s="2">
         <f>_xlfn.PERCENTILE.INC(J19:J30,0.9)</f>
         <v>15.029000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="130"/>
-      <c r="C20" s="133"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="2">
         <v>15</v>
       </c>
@@ -4974,12 +4975,12 @@
         <f t="shared" ref="J20:J30" si="0">ABS(H20-I20)</f>
         <v>1.5700000000000003</v>
       </c>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
     </row>
     <row r="21" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="130"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="2">
         <v>16</v>
       </c>
@@ -5002,12 +5003,12 @@
         <f t="shared" si="0"/>
         <v>23.58</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
     </row>
     <row r="22" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="130"/>
-      <c r="C22" s="133"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="2">
         <v>17</v>
       </c>
@@ -5030,12 +5031,12 @@
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="130"/>
-      <c r="C23" s="133"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="2">
         <v>18</v>
       </c>
@@ -5058,12 +5059,12 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="130"/>
-      <c r="C24" s="133"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="2">
         <v>19</v>
       </c>
@@ -5086,12 +5087,12 @@
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
     </row>
     <row r="25" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="130"/>
-      <c r="C25" s="133"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="2">
         <v>20</v>
       </c>
@@ -5114,12 +5115,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
     </row>
     <row r="26" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="130"/>
-      <c r="C26" s="133"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="2">
         <v>21</v>
       </c>
@@ -5142,12 +5143,12 @@
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
     </row>
     <row r="27" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="130"/>
-      <c r="C27" s="133"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="2">
         <v>22</v>
       </c>
@@ -5170,12 +5171,12 @@
         <f t="shared" si="0"/>
         <v>9.9799999999999986</v>
       </c>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="130"/>
-      <c r="C28" s="133"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="2">
         <v>23</v>
       </c>
@@ -5198,12 +5199,12 @@
         <f t="shared" si="0"/>
         <v>2.3899999999999997</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
     </row>
     <row r="29" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="130"/>
-      <c r="C29" s="133"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="2">
         <v>24</v>
       </c>
@@ -5226,12 +5227,12 @@
         <f t="shared" si="0"/>
         <v>15.59</v>
       </c>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
     </row>
     <row r="30" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="131"/>
-      <c r="C30" s="134"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="2">
         <v>25</v>
       </c>
@@ -5254,8 +5255,8 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
     </row>
     <row r="31" spans="2:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
@@ -5275,10 +5276,10 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="123"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="2">
         <v>26</v>
       </c>
@@ -5304,15 +5305,15 @@
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="128" t="s">
+      <c r="L32" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="2">
         <v>27</v>
       </c>
@@ -5338,13 +5339,13 @@
       <c r="K33" s="2">
         <v>1</v>
       </c>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="124"/>
-      <c r="C34" s="125"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="2">
         <v>28</v>
       </c>
@@ -5370,13 +5371,13 @@
       <c r="K34" s="2">
         <v>1</v>
       </c>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
@@ -5402,13 +5403,13 @@
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="124"/>
-      <c r="C36" s="125"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -5434,13 +5435,13 @@
       <c r="K36" s="2">
         <v>1</v>
       </c>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="124"/>
-      <c r="C37" s="125"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="2">
         <v>31</v>
       </c>
@@ -5466,13 +5467,13 @@
       <c r="K37" s="2">
         <v>1</v>
       </c>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="126"/>
-      <c r="C38" s="127"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="2">
         <v>32</v>
       </c>
@@ -5498,9 +5499,9 @@
       <c r="K38" s="2">
         <v>1</v>
       </c>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K39">
@@ -5575,10 +5576,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="130" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="26">
@@ -5607,14 +5608,14 @@
         <f>ROUND(J5/(LM!B$17+LM!B$18*'CP 1'!I5),2)</f>
         <v>0.8</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="137"/>
+      <c r="M5" s="138"/>
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136"/>
-      <c r="C6" s="130"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="28">
         <v>2</v>
       </c>
@@ -5641,12 +5642,12 @@
         <f>ROUND(J6/(LM!B$17+LM!B$18*'CP 1'!I6),2)</f>
         <v>1.03</v>
       </c>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
     </row>
     <row r="7" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="136"/>
-      <c r="C7" s="130"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="28">
         <v>3</v>
       </c>
@@ -5673,12 +5674,12 @@
         <f>ROUND(J7/(LM!B$17+LM!B$18*'CP 1'!I7),2)</f>
         <v>0.67</v>
       </c>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="136"/>
-      <c r="C8" s="130"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="28">
         <v>4</v>
       </c>
@@ -5705,12 +5706,12 @@
         <f>ROUND(J8/(LM!B$17+LM!B$18*'CP 1'!I8),2)</f>
         <v>0.12</v>
       </c>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
     </row>
     <row r="9" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="136"/>
-      <c r="C9" s="130"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="28">
         <v>5</v>
       </c>
@@ -5737,12 +5738,12 @@
         <f>ROUND(J9/(LM!B$17+LM!B$18*'CP 1'!I9),2)</f>
         <v>0.2</v>
       </c>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="2:17" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="136"/>
-      <c r="C10" s="130"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="28">
         <v>6</v>
       </c>
@@ -5769,15 +5770,15 @@
         <f>ROUND(J10/(LM!B$17+LM!B$18*'CP 1'!I10),2)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
       <c r="N10" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="136"/>
-      <c r="C11" s="130"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="28">
         <v>7</v>
       </c>
@@ -5804,8 +5805,8 @@
         <f>ROUND(J11/(LM!B$17+LM!B$18*'CP 1'!I11),2)</f>
         <v>0.33</v>
       </c>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
       <c r="N11" s="26" t="s">
         <v>19</v>
       </c>
@@ -5814,8 +5815,8 @@
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="136"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="28">
         <v>8</v>
       </c>
@@ -5842,8 +5843,8 @@
         <f>ROUND(J12/(LM!B$17+LM!B$18*'CP 1'!I12),2)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
       <c r="N12" s="28" t="s">
         <v>20</v>
       </c>
@@ -5852,8 +5853,8 @@
       </c>
     </row>
     <row r="13" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="136"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="28">
         <v>9</v>
       </c>
@@ -5880,8 +5881,8 @@
         <f>ROUND(J13/(LM!B$17+LM!B$18*'CP 1'!I13),2)</f>
         <v>0.03</v>
       </c>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
       <c r="N13" s="28" t="s">
         <v>21</v>
       </c>
@@ -5891,8 +5892,8 @@
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="28">
         <v>10</v>
       </c>
@@ -5919,8 +5920,8 @@
         <f>ROUND(J14/(LM!B$17+LM!B$18*'CP 1'!I14),2)</f>
         <v>0.69</v>
       </c>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="28" t="s">
         <v>22</v>
       </c>
@@ -5929,8 +5930,8 @@
       </c>
     </row>
     <row r="15" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="28">
         <v>11</v>
       </c>
@@ -5957,8 +5958,8 @@
         <f>ROUND(J15/(LM!B$17+LM!B$18*'CP 1'!I15),2)</f>
         <v>0.95</v>
       </c>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
       <c r="N15" s="28" t="s">
         <v>22</v>
       </c>
@@ -5967,8 +5968,8 @@
       </c>
     </row>
     <row r="16" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="136"/>
-      <c r="C16" s="130"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="28">
         <v>12</v>
       </c>
@@ -5995,8 +5996,8 @@
         <f>ROUND(J16/(LM!B$17+LM!B$18*'CP 1'!I16),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
       <c r="N16" s="28" t="s">
         <v>22</v>
       </c>
@@ -6005,8 +6006,8 @@
       </c>
     </row>
     <row r="17" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="136"/>
-      <c r="C17" s="130"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="28">
         <v>13</v>
       </c>
@@ -6033,8 +6034,8 @@
         <f>ROUND(J17/(LM!B$17+LM!B$18*'CP 1'!I17),2)</f>
         <v>0.83</v>
       </c>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
       <c r="N17" s="28" t="s">
         <v>22</v>
       </c>
@@ -6043,8 +6044,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="130"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="28">
         <v>14</v>
       </c>
@@ -6071,8 +6072,8 @@
         <f>ROUND(J18/(LM!B$17+LM!B$18*'CP 1'!I18),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
       <c r="N18" s="30" t="s">
         <v>24</v>
       </c>
@@ -6081,8 +6082,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="136"/>
-      <c r="C19" s="130"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="28">
         <v>15</v>
       </c>
@@ -6109,13 +6110,13 @@
         <f>ROUND(J19/(LM!B$17+LM!B$18*'CP 1'!I19),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="2:20" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="136"/>
-      <c r="C20" s="131"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="30">
         <v>16</v>
       </c>
@@ -6155,7 +6156,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="136"/>
+      <c r="B21" s="137"/>
       <c r="I21" s="35"/>
       <c r="J21" s="53" t="s">
         <v>12</v>
@@ -6171,8 +6172,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="136"/>
-      <c r="C22" s="129" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="130" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="26">
@@ -6201,11 +6202,11 @@
         <f t="shared" ref="K22:K37" si="1">IF(AND(H22&gt;=S22,H22&lt;=T22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="137" t="s">
+      <c r="L22" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
       <c r="O22" s="48"/>
       <c r="S22" s="1">
         <f>ROUND(MAX(0,I22-L$20*(LM!B$17+LM!B$18*'CP 1'!I22)),2)</f>
@@ -6217,8 +6218,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="136"/>
-      <c r="C23" s="130"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="28">
         <v>18</v>
       </c>
@@ -6245,9 +6246,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
       <c r="O23" s="48"/>
       <c r="S23" s="1">
         <f>ROUND(MAX(0,I23-L$20*(LM!B$17+LM!B$18*'CP 1'!I23)),2)</f>
@@ -6259,8 +6260,8 @@
       </c>
     </row>
     <row r="24" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="136"/>
-      <c r="C24" s="130"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="28">
         <v>19</v>
       </c>
@@ -6287,9 +6288,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
       <c r="O24" s="48"/>
       <c r="S24" s="1">
         <f>ROUND(MAX(0,I24-L$20*(LM!B$17+LM!B$18*'CP 1'!I24)),2)</f>
@@ -6301,8 +6302,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="136"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="28">
         <v>20</v>
       </c>
@@ -6329,9 +6330,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
       <c r="O25" s="48"/>
       <c r="S25" s="1">
         <f>ROUND(MAX(0,I25-L$20*(LM!B$17+LM!B$18*'CP 1'!I25)),2)</f>
@@ -6343,8 +6344,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="136"/>
-      <c r="C26" s="130"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="28">
         <v>21</v>
       </c>
@@ -6371,9 +6372,9 @@
         <f>IF(AND(H26&gt;=S26,H26&lt;=T26),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
       <c r="O26" s="48"/>
       <c r="S26" s="1">
         <f>ROUND(MAX(0,I26-L$20*(LM!B$17+LM!B$18*'CP 1'!I26)),2)</f>
@@ -6385,8 +6386,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="136"/>
-      <c r="C27" s="130"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="28">
         <v>22</v>
       </c>
@@ -6413,9 +6414,9 @@
         <f>IF(AND(H27&gt;=S27,H27&lt;=T27),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
       <c r="O27" s="48"/>
       <c r="S27" s="1">
         <f>ROUND(MAX(0,I27-L$20*(LM!B$17+LM!B$18*'CP 1'!I27)),2)</f>
@@ -6427,8 +6428,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="136"/>
-      <c r="C28" s="130"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="28">
         <v>23</v>
       </c>
@@ -6455,9 +6456,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
       <c r="O28" s="48"/>
       <c r="S28" s="1">
         <f>ROUND(MAX(0,I28-L$20*(LM!B$17+LM!B$18*'CP 1'!I28)),2)</f>
@@ -6469,8 +6470,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="136"/>
-      <c r="C29" s="130"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="28">
         <v>24</v>
       </c>
@@ -6497,9 +6498,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
       <c r="O29" s="48"/>
       <c r="S29" s="1">
         <f>ROUND(MAX(0,I29-L$20*(LM!B$17+LM!B$18*'CP 1'!I29)),2)</f>
@@ -6511,8 +6512,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="136"/>
-      <c r="C30" s="130"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="28">
         <v>25</v>
       </c>
@@ -6539,9 +6540,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
       <c r="O30" s="48"/>
       <c r="S30" s="1">
         <f>ROUND(MAX(0,I30-L$20*(LM!B$17+LM!B$18*'CP 1'!I30)),2)</f>
@@ -6553,8 +6554,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="136"/>
-      <c r="C31" s="130"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="28">
         <v>26</v>
       </c>
@@ -6581,9 +6582,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
       <c r="O31" s="48"/>
       <c r="S31" s="1">
         <f>ROUND(MAX(0,I31-L$20*(LM!B$17+LM!B$18*'CP 1'!I31)),2)</f>
@@ -6595,8 +6596,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="136"/>
-      <c r="C32" s="130"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="28">
         <v>27</v>
       </c>
@@ -6623,9 +6624,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
       <c r="O32" s="48"/>
       <c r="S32" s="1">
         <f>ROUND(MAX(0,I32-L$20*(LM!B$17+LM!B$18*'CP 1'!I32)),2)</f>
@@ -6637,8 +6638,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="136"/>
-      <c r="C33" s="130"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="28">
         <v>28</v>
       </c>
@@ -6665,9 +6666,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
       <c r="O33" s="48"/>
       <c r="S33" s="1">
         <f>ROUND(MAX(0,I33-L$20*(LM!B$17+LM!B$18*'CP 1'!I33)),2)</f>
@@ -6679,8 +6680,8 @@
       </c>
     </row>
     <row r="34" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="136"/>
-      <c r="C34" s="130"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="28">
         <v>29</v>
       </c>
@@ -6707,9 +6708,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="137"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
       <c r="O34" s="48"/>
       <c r="S34" s="1">
         <f>ROUND(MAX(0,I34-L$20*(LM!B$17+LM!B$18*'CP 1'!I34)),2)</f>
@@ -6721,8 +6722,8 @@
       </c>
     </row>
     <row r="35" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="136"/>
-      <c r="C35" s="130"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="28">
         <v>30</v>
       </c>
@@ -6749,9 +6750,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
       <c r="O35" s="48"/>
       <c r="S35" s="1">
         <f>ROUND(MAX(0,I35-L$20*(LM!B$17+LM!B$18*'CP 1'!I35)),2)</f>
@@ -6763,8 +6764,8 @@
       </c>
     </row>
     <row r="36" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="136"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="28">
         <v>31</v>
       </c>
@@ -6791,9 +6792,9 @@
         <f>IF(AND(H36&gt;=S36,H36&lt;=T36),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
       <c r="O36" s="48"/>
       <c r="S36" s="1">
         <f>ROUND(MAX(0,I36-L$20*(LM!B$17+LM!B$18*'CP 1'!I36)),2)</f>
@@ -6805,8 +6806,8 @@
       </c>
     </row>
     <row r="37" spans="2:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="136"/>
-      <c r="C37" s="131"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="30">
         <v>32</v>
       </c>
@@ -6833,9 +6834,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
       <c r="O37" s="48"/>
       <c r="S37" s="1">
         <f>ROUND(MAX(0,I37-L$20*(LM!B$17+LM!B$18*'CP 1'!I37)),2)</f>
@@ -8624,10 +8625,10 @@
       <c r="G13" s="74">
         <v>4.83</v>
       </c>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="139"/>
+      <c r="L13" s="140"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="73">
@@ -8645,8 +8646,8 @@
       <c r="G14" s="74">
         <v>0</v>
       </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="142"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="73">
@@ -8664,8 +8665,8 @@
       <c r="G15" s="74">
         <v>28.8</v>
       </c>
-      <c r="K15" s="140"/>
-      <c r="L15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="142"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="73">
@@ -8683,8 +8684,8 @@
       <c r="G16" s="74">
         <v>5.65</v>
       </c>
-      <c r="K16" s="140"/>
-      <c r="L16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C17" s="73">
@@ -8702,8 +8703,8 @@
       <c r="G17" s="74">
         <v>0.05</v>
       </c>
-      <c r="K17" s="140"/>
-      <c r="L17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="142"/>
     </row>
     <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="73">
@@ -8721,8 +8722,8 @@
       <c r="G18" s="74">
         <v>3.27</v>
       </c>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="144"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C19" s="73">
@@ -9077,7 +9078,7 @@
       </c>
       <c r="H28" s="61">
         <f t="shared" ref="G28:H29" ca="1" si="4">RAND()</f>
-        <v>0.42510467063206758</v>
+        <v>0.64376583947533084</v>
       </c>
       <c r="N28" s="28">
         <v>7</v>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="G29" s="60">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14794085055857165</v>
+        <v>0.9848294406228969</v>
       </c>
       <c r="H29" s="104">
         <v>4.2099999999999999E-2</v>
@@ -9466,12 +9467,12 @@
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="157" t="s">
+      <c r="B37" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="55"/>
       <c r="G37" s="78" t="s">
         <v>75</v>
@@ -9506,12 +9507,12 @@
       </c>
     </row>
     <row r="38" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="159" t="s">
+      <c r="B38" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="45"/>
       <c r="G38" s="106" t="s">
         <v>76</v>
@@ -9591,10 +9592,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5C9D6-2333-41E8-97C6-9FADE584365B}">
-  <dimension ref="C4:R33"/>
+  <dimension ref="C4:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9605,31 +9606,31 @@
     <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="146" t="s">
+    <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C5" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
       <c r="G5" s="114" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="144" t="s">
+    <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="115" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C8" s="108" t="s">
         <v>0</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C9" s="109">
         <v>5000</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C10" s="109">
         <v>5001</v>
       </c>
@@ -9728,8 +9729,11 @@
         <f t="shared" ref="R10:R24" si="1">IF(Q10&gt;=N10,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="109">
         <v>5002</v>
       </c>
@@ -9763,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C12" s="109">
         <v>5003</v>
       </c>
@@ -9776,11 +9780,11 @@
       <c r="F12" s="74">
         <v>747</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
       <c r="M12" s="109">
         <v>5003</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C13" s="109">
         <v>5004</v>
       </c>
@@ -9815,9 +9819,9 @@
       <c r="F13" s="74">
         <v>305</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
       <c r="M13" s="109">
         <v>5004</v>
       </c>
@@ -9839,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C14" s="109">
         <v>5005</v>
       </c>
@@ -9852,9 +9856,9 @@
       <c r="F14" s="74">
         <v>770</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
       <c r="M14" s="109">
         <v>5005</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C15" s="109">
         <v>5006</v>
       </c>
@@ -9889,9 +9893,9 @@
       <c r="F15" s="74">
         <v>175</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
       <c r="M15" s="109">
         <v>5006</v>
       </c>
@@ -9913,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="109">
         <v>5007</v>
       </c>
@@ -9926,9 +9930,9 @@
       <c r="F16" s="74">
         <v>247</v>
       </c>
-      <c r="I16" s="154"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="156"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="157"/>
       <c r="M16" s="109">
         <v>5007</v>
       </c>

--- a/Analysis drafts/Miscellaneous/Approach CP und QR.xlsx
+++ b/Analysis drafts/Miscellaneous/Approach CP und QR.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Studium\Master\Université de Genève\Kurse\Master thesis\Drafts\Analysis drafts\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521399F-CCAE-47F5-BEB5-4653C920B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FA13D-D712-487D-B335-BEB8E335E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8027843B-AE8F-422B-8197-31000C3E0078}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8027843B-AE8F-422B-8197-31000C3E0078}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="CP 1" sheetId="2" r:id="rId2"/>
+    <sheet name="CP General" sheetId="1" r:id="rId1"/>
+    <sheet name="CP 1. part" sheetId="2" r:id="rId2"/>
     <sheet name="CP 2" sheetId="3" r:id="rId3"/>
     <sheet name="LM" sheetId="4" r:id="rId4"/>
     <sheet name="QR 1" sheetId="5" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>x2</t>
-  </si>
-  <si>
-    <t>Y - Prediction</t>
   </si>
   <si>
     <t>Training</t>
@@ -74,11 +71,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>- apply the trained model, make predictions
-- calculate the prediction intervals by adding and subtracting the quantile
-- 90% should be covered</t>
   </si>
   <si>
     <t>Interval</t>
@@ -118,9 +110,6 @@
   </si>
   <si>
     <t>Mean =</t>
-  </si>
-  <si>
-    <t>Run 80</t>
   </si>
   <si>
     <t>Lower</t>
@@ -166,9 +155,6 @@
       </rPr>
       <t>so that every customer is used for training and testing</t>
     </r>
-  </si>
-  <si>
-    <t>=ROUND(ABS(IF(RAND()&gt;0.5;H5+RAND()*2*(SQRT(H5)+1);H5-RAND()*2*(SQRT(H5)+1)));2)</t>
   </si>
   <si>
     <t>SUMMARY OUTPUT</t>
@@ -250,11 +236,6 @@
   </si>
   <si>
     <t>Scaled residuals</t>
-  </si>
-  <si>
-    <t>- Test set not of managerial interest
-- But describes how well the method performs when data are taken from the same cohort and not transferred to the next cohort
-- Is closer to the original idea of Conformal Prediction</t>
   </si>
   <si>
     <t>r</t>
@@ -359,25 +340,6 @@
     <t xml:space="preserve">                 for the lower boundary to avoid misleading results (not shown here)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">- Train the model
-- Make predictions
-- Get the residuals
-- Get the quantile </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1.07)</t>
-    </r>
-  </si>
-  <si>
     <t>the upper prediction interval boundaries for CET</t>
   </si>
   <si>
@@ -394,6 +356,60 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Coverage:</t>
+  </si>
+  <si>
+    <t>- apply the trained model, make predictions
+- calculate the prediction intervals by adding and subtracting the quantile
+- 90% should be covered
+- 71% &lt; 90% -&gt; undercoverage in this case</t>
+  </si>
+  <si>
+    <t>Only for CR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Train the model
+- Make predictions
+- Get the regular residuals
+- Scale the regular residuals
+- Take the desired quantile from the residuals </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1.07)</t>
+    </r>
+  </si>
+  <si>
+    <t>- Test set not of managerial interest and not important for the process
+- But describes how well the method performs when data are taken from the same cohort and not transferred to the next cohort
+- Is closer to the original idea of Conformal Prediction
+- Cut negative interval boundaries off because they do not make sense for CET</t>
+  </si>
+  <si>
+    <t>Run n</t>
+  </si>
+  <si>
+    <t>CET_pred</t>
+  </si>
+  <si>
+    <t>- apply the PNBD model to the new cohort and make CET predictions
+- get the individal interval lengths by scaling the quantile with the expected abs. difference of the specific customer
+- add and subtract the result form the respective point prediction
+- check if the resulting interval covers the true value
+- calculate the overall coverage</t>
   </si>
 </sst>
 </file>
@@ -575,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -928,11 +944,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -973,12 +1033,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,6 +1255,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,16 +1305,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1246,8 +1329,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7879080" y="1905000"/>
-          <a:ext cx="1539240" cy="853440"/>
+          <a:off x="7581900" y="1623060"/>
+          <a:ext cx="2339340" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1329,13 +1412,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
+      <xdr:colOff>670560</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -1352,8 +1435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6393180" y="723900"/>
-          <a:ext cx="358140" cy="2194560"/>
+          <a:off x="6126480" y="723900"/>
+          <a:ext cx="358140" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,9 +1477,9 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>181610</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1891993" cy="165366"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2825389" cy="165366"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1410,8 +1493,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6899910" y="181610"/>
-              <a:ext cx="1891993" cy="165366"/>
+              <a:off x="6662420" y="181610"/>
+              <a:ext cx="2825389" cy="165366"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1488,11 +1571,59 @@
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒂𝒃𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒊𝒇𝒇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝒔𝒅</m:t>
+                      <m:t>𝑳𝑴𝒑𝒓𝒆𝒅</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1100" b="1" i="1">
@@ -1514,7 +1645,29 @@
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏</m:t>
+                      <m:t>𝑪𝑬𝑻</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒑𝒓𝒆𝒅</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1100" b="1" i="1">
@@ -1542,7 +1695,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1556,8 +1709,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6899910" y="181610"/>
-              <a:ext cx="1891993" cy="165366"/>
+              <a:off x="6662420" y="181610"/>
+              <a:ext cx="2825389" cy="165366"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1610,7 +1763,42 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑹𝒆𝒔𝒊𝒅𝒖𝒂𝒍/𝒔𝒅(𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏)</a:t>
+                <a:t>𝑹𝒆𝒔𝒊𝒅𝒖𝒂𝒍/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒂𝒃𝒔_𝒅𝒊𝒇𝒇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑳𝑴𝒑𝒓𝒆𝒅(𝑪𝑬𝑻_𝒑𝒓𝒆𝒅)</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100" b="1" i="1">
                 <a:solidFill>
@@ -1740,13 +1928,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>157480</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2763192" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2486706" cy="157992"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1760,8 +1948,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6902450" y="345440"/>
-              <a:ext cx="2763192" cy="173766"/>
+              <a:off x="6619240" y="344170"/>
+              <a:ext cx="2486706" cy="157992"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1801,63 +1989,111 @@
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-GB" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝑹𝒆𝒔𝒊𝒅𝒖𝒂𝒍</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>/(</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝒊𝒏𝒕𝒆𝒓𝒄𝒆𝒑𝒕</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>+</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝒂</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>∗</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏</m:t>
+                      <m:t>𝑪𝑬𝑻</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="1" i="1">
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒓𝒆𝒅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
@@ -1866,12 +2102,12 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+              <a:endParaRPr lang="en-GB" sz="1000" b="1"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1885,8 +2121,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6902450" y="345440"/>
-              <a:ext cx="2763192" cy="173766"/>
+              <a:off x="6619240" y="344170"/>
+              <a:ext cx="2486706" cy="157992"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1918,21 +2154,72 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+                <a:rPr lang="de-DE" sz="1000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>=</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="1" i="0">
+                <a:rPr lang="de-DE" sz="1000" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑹𝒆𝒔𝒊𝒅𝒖𝒂𝒍/(𝒊𝒏𝒕𝒆𝒓𝒄𝒆𝒑𝒕+𝒂∗𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏)</a:t>
+                <a:t>𝑹𝒆𝒔𝒊𝒅𝒖𝒂𝒍/(𝒊𝒏𝒕𝒆𝒓𝒄𝒆𝒑𝒕+𝒂∗</a:t>
               </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑪𝑬𝑻_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒓𝒆𝒅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1000" b="1"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1942,15 +2229,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1966,8 +2253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6576060" y="281940"/>
-          <a:ext cx="274320" cy="259080"/>
+          <a:off x="6484620" y="281940"/>
+          <a:ext cx="121920" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2119,9 +2406,9 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2449453" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3644011" cy="210507"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2136,7 +2423,336 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5898328" y="72390"/>
-              <a:ext cx="2449453" cy="221214"/>
+              <a:ext cx="3644011" cy="210507"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒂𝒃𝒔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒅𝒊𝒇𝒇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑳𝑴𝒑𝒓𝒆𝒅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑪𝑬𝑻</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒑𝒓𝒆𝒅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)∗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝒒𝒖𝒂𝒏𝒕𝒊𝒍𝒆</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1400" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E984691-2200-FD6A-0133-68A9A9860B96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5898328" y="72390"/>
+              <a:ext cx="3644011" cy="210507"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1400" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=𝒂𝒃𝒔_𝒅𝒊𝒇𝒇_𝑳𝑴𝒑𝒓𝒆𝒅(𝑪𝑬𝑻_𝒑𝒓𝒆𝒅)∗𝒒𝒖𝒂𝒏𝒕𝒊𝒍𝒆</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1400" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A055CF2A-384A-C5BC-36A1-1003533559EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5441128" y="177644"/>
+          <a:ext cx="457200" cy="437783"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2672270" cy="221214"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8CEA20-D45C-4CDD-9F68-31F1015BF5FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6512859" y="251684"/>
+              <a:ext cx="2672270" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2180,226 +2796,19 @@
                       <a:rPr lang="de-DE" sz="1400" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝒔𝒅</m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1400" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>∗</m:t>
+                      <m:t>𝑪𝑬𝑻</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1400" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝒒𝒖𝒂𝒏𝒕𝒊𝒍𝒆</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1400" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E984691-2200-FD6A-0133-68A9A9860B96}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5898328" y="72390"/>
-              <a:ext cx="2449453" cy="221214"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1400" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=𝒔𝒅(𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏)∗𝒒𝒖𝒂𝒏𝒕𝒊𝒍𝒆</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1400" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A055CF2A-384A-C5BC-36A1-1003533559EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5441128" y="182997"/>
-          <a:ext cx="457200" cy="432430"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2794226" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8CEA20-D45C-4CDD-9F68-31F1015BF5FF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6377940" y="255270"/>
-              <a:ext cx="2794226" cy="221214"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1400" b="1" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
+                      <m:t>_</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1400" b="1" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏</m:t>
+                      <m:t>𝒑𝒓𝒆𝒅</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1400" b="1" i="1">
@@ -2436,7 +2845,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2450,8 +2859,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6377940" y="255270"/>
-              <a:ext cx="2794226" cy="221214"/>
+              <a:off x="6512859" y="251684"/>
+              <a:ext cx="2672270" cy="221214"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2478,18 +2887,19 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="de-DE" sz="1400" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>=𝑷𝒓𝒆𝒅𝒊𝒄𝒕𝒊𝒐𝒏 </a:t>
+                <a:t>=𝑪𝑬𝑻_𝒑𝒓𝒆𝒅 ±</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1400" b="1" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>±𝒔𝒄𝒂𝒍𝒆𝒅 𝒒𝒖𝒂𝒏𝒕𝒊𝒍𝒆</a:t>
+                <a:t>𝒔𝒄𝒂𝒍𝒆𝒅 𝒒𝒖𝒂𝒏𝒕𝒊𝒍𝒆</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1400" b="1"/>
             </a:p>
@@ -4531,7 +4941,7 @@
   <dimension ref="B4:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4554,26 +4964,26 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="9" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>93</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+    </row>
+    <row r="5" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="122" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-    </row>
-    <row r="5" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="130" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>6</v>
+      <c r="C5" s="131" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4591,17 +5001,17 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="136" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="2">
         <v>2</v>
       </c>
@@ -4618,15 +5028,15 @@
         <v>9.25</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="131"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="2">
         <v>3</v>
       </c>
@@ -4643,15 +5053,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="131"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="2">
         <v>4</v>
       </c>
@@ -4668,15 +5078,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
     </row>
     <row r="9" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="131"/>
-      <c r="C9" s="134"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="2">
         <v>5</v>
       </c>
@@ -4693,15 +5103,15 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
     </row>
     <row r="10" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="131"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="2">
         <v>6</v>
       </c>
@@ -4718,15 +5128,15 @@
         <v>3.65</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
     </row>
     <row r="11" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="131"/>
-      <c r="C11" s="134"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="2">
         <v>7</v>
       </c>
@@ -4743,15 +5153,15 @@
         <v>18.940000000000001</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
     </row>
     <row r="12" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="131"/>
-      <c r="C12" s="134"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="2">
         <v>8</v>
       </c>
@@ -4768,15 +5178,15 @@
         <v>4.83</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
     </row>
     <row r="13" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="131"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="2">
         <v>9</v>
       </c>
@@ -4793,15 +5203,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
     </row>
     <row r="14" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="131"/>
-      <c r="C14" s="134"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="2">
         <v>10</v>
       </c>
@@ -4818,15 +5228,15 @@
         <v>28.8</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
     </row>
     <row r="15" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="131"/>
-      <c r="C15" s="134"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="2">
         <v>11</v>
       </c>
@@ -4843,15 +5253,15 @@
         <v>5.65</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
     </row>
     <row r="16" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="131"/>
-      <c r="C16" s="134"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="2">
         <v>12</v>
       </c>
@@ -4868,15 +5278,15 @@
         <v>0.05</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="131"/>
-      <c r="C17" s="135"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="2">
         <v>13</v>
       </c>
@@ -4893,14 +5303,14 @@
         <v>3.27</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
     </row>
     <row r="18" spans="2:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="131"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4909,15 +5319,15 @@
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
       <c r="J18" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="131"/>
-      <c r="C19" s="133" t="s">
-        <v>7</v>
+      <c r="B19" s="129"/>
+      <c r="C19" s="131" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>14</v>
@@ -4941,18 +5351,14 @@
         <f>ABS(H19-I19)</f>
         <v>1.0699999999999998</v>
       </c>
-      <c r="K19" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="2">
-        <f>_xlfn.PERCENTILE.INC(J19:J30,0.9)</f>
-        <v>15.029000000000002</v>
-      </c>
+      <c r="K19" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="127"/>
     </row>
     <row r="20" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="131"/>
-      <c r="C20" s="134"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="2">
         <v>15</v>
       </c>
@@ -4975,12 +5381,12 @@
         <f t="shared" ref="J20:J30" si="0">ABS(H20-I20)</f>
         <v>1.5700000000000003</v>
       </c>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
     </row>
     <row r="21" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="131"/>
-      <c r="C21" s="134"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="2">
         <v>16</v>
       </c>
@@ -5003,12 +5409,12 @@
         <f t="shared" si="0"/>
         <v>23.58</v>
       </c>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
     </row>
     <row r="22" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="131"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="2">
         <v>17</v>
       </c>
@@ -5031,12 +5437,12 @@
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="131"/>
-      <c r="C23" s="134"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="2">
         <v>18</v>
       </c>
@@ -5059,12 +5465,12 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="131"/>
-      <c r="C24" s="134"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="2">
         <v>19</v>
       </c>
@@ -5087,12 +5493,12 @@
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
     </row>
     <row r="25" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="131"/>
-      <c r="C25" s="134"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="2">
         <v>20</v>
       </c>
@@ -5115,12 +5521,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
     </row>
     <row r="26" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="131"/>
-      <c r="C26" s="134"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="2">
         <v>21</v>
       </c>
@@ -5143,12 +5549,12 @@
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
     </row>
     <row r="27" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="131"/>
-      <c r="C27" s="134"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="2">
         <v>22</v>
       </c>
@@ -5171,12 +5577,12 @@
         <f t="shared" si="0"/>
         <v>9.9799999999999986</v>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="131"/>
-      <c r="C28" s="134"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="2">
         <v>23</v>
       </c>
@@ -5199,12 +5605,12 @@
         <f t="shared" si="0"/>
         <v>2.3899999999999997</v>
       </c>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
     </row>
     <row r="29" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="131"/>
-      <c r="C29" s="134"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="2">
         <v>24</v>
       </c>
@@ -5227,12 +5633,12 @@
         <f t="shared" si="0"/>
         <v>15.59</v>
       </c>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-    </row>
-    <row r="30" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="132"/>
-      <c r="C30" s="135"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+    </row>
+    <row r="30" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="130"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="2">
         <v>25</v>
       </c>
@@ -5255,8 +5661,12 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="157">
+        <f>_xlfn.PERCENTILE.INC(J19:J30,0.9)</f>
+        <v>15.029000000000002</v>
+      </c>
     </row>
     <row r="31" spans="2:14" s="2" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
@@ -5268,18 +5678,18 @@
       <c r="H31" s="15"/>
       <c r="I31" s="16"/>
       <c r="J31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="124"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="2">
         <v>26</v>
       </c>
@@ -5299,21 +5709,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J32" s="21" t="str">
-        <f>_xlfn.CONCAT("[",MAX(I32-M$19,0),", ",I32+M$19,"]")</f>
-        <v>[0, 15.309]</v>
+        <f>_xlfn.CONCAT("[",I32-M$30,", ",I32+M$30,"]")</f>
+        <v>[-14.749, 15.309]</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
+      <c r="L32" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="125"/>
-      <c r="C33" s="126"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="2">
         <v>27</v>
       </c>
@@ -5333,19 +5743,19 @@
         <v>16.649999999999999</v>
       </c>
       <c r="J33" s="21" t="str">
-        <f t="shared" ref="J33:J38" si="1">_xlfn.CONCAT("[",MAX(I33-M$19,0),", ",I33+M$19,"]")</f>
+        <f>_xlfn.CONCAT("[",I33-M$30,", ",I33+M$30,"]")</f>
         <v>[1.621, 31.679]</v>
       </c>
       <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="125"/>
-      <c r="C34" s="126"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="2">
         <v>28</v>
       </c>
@@ -5365,19 +5775,19 @@
         <v>1.38</v>
       </c>
       <c r="J34" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>[0, 16.409]</v>
+        <f>_xlfn.CONCAT("[",I34-M$30,", ",I34+M$30,"]")</f>
+        <v>[-13.649, 16.409]</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
-      <c r="N34" s="129"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="125"/>
-      <c r="C35" s="126"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
@@ -5394,22 +5804,22 @@
         <v>0</v>
       </c>
       <c r="I35" s="12">
-        <v>25.6</v>
+        <v>10.8</v>
       </c>
       <c r="J35" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>[10.571, 40.629]</v>
+        <f>_xlfn.CONCAT("[",I35-M$30,", ",I35+M$30,"]")</f>
+        <v>[-4.229, 25.829]</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="125"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -5429,19 +5839,19 @@
         <v>5.22</v>
       </c>
       <c r="J36" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>[0, 20.249]</v>
+        <f>_xlfn.CONCAT("[",I36-M$30,", ",I36+M$30,"]")</f>
+        <v>[-9.809, 20.249]</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
       </c>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
-      <c r="N36" s="129"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="125"/>
-      <c r="C37" s="126"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="2">
         <v>31</v>
       </c>
@@ -5458,22 +5868,22 @@
         <v>0</v>
       </c>
       <c r="I37" s="12">
-        <v>0.55000000000000004</v>
+        <v>28.5</v>
       </c>
       <c r="J37" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>[0, 15.579]</v>
+        <f>_xlfn.CONCAT("[",I37-M$30,", ",I37+M$30,"]")</f>
+        <v>[13.471, 43.529]</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
-      </c>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="127"/>
-      <c r="C38" s="128"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="2">
         <v>32</v>
       </c>
@@ -5492,21 +5902,24 @@
       <c r="I38" s="18">
         <v>0</v>
       </c>
-      <c r="J38" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>[0, 15.029]</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
+      <c r="J38" s="158" t="str">
+        <f>_xlfn.CONCAT("[",I38-M$30,", ",I38+M$30,"]")</f>
+        <v>[-15.029, 15.029]</v>
+      </c>
+      <c r="K38" s="159">
+        <v>1</v>
+      </c>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
       <c r="K39">
         <f>ROUND(AVERAGE(K32:K38),2)</f>
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -5528,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE3753-1B87-4AB6-8727-3C0C9D3FE884}">
   <dimension ref="B3:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5542,12 +5955,12 @@
     <col min="10" max="10" width="10.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="Q3" s="43" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D4" s="25" t="s">
@@ -5560,41 +5973,41 @@
         <v>2</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="130" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <v>741</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <v>297</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="32">
         <v>367</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="32">
         <v>8.4499999999999993</v>
       </c>
       <c r="I5" s="27">
@@ -5605,17 +6018,17 @@
         <v>5.1300000000000008</v>
       </c>
       <c r="K5" s="1">
-        <f>ROUND(J5/(LM!B$17+LM!B$18*'CP 1'!I5),2)</f>
+        <f>ROUND(J5/(LM!B$17+LM!B$18*'CP 1. part'!I5),2)</f>
         <v>0.8</v>
       </c>
-      <c r="L5" s="138" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="138"/>
+      <c r="L5" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="136"/>
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
-      <c r="C6" s="131"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="28">
         <v>2</v>
       </c>
@@ -5639,15 +6052,15 @@
         <v>7.879999999999999</v>
       </c>
       <c r="K6" s="1">
-        <f>ROUND(J6/(LM!B$17+LM!B$18*'CP 1'!I6),2)</f>
+        <f>ROUND(J6/(LM!B$17+LM!B$18*'CP 1. part'!I6),2)</f>
         <v>1.03</v>
       </c>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
     </row>
     <row r="7" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="28">
         <v>3</v>
       </c>
@@ -5671,15 +6084,15 @@
         <v>1.62</v>
       </c>
       <c r="K7" s="1">
-        <f>ROUND(J7/(LM!B$17+LM!B$18*'CP 1'!I7),2)</f>
+        <f>ROUND(J7/(LM!B$17+LM!B$18*'CP 1. part'!I7),2)</f>
         <v>0.67</v>
       </c>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="137"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="28">
         <v>4</v>
       </c>
@@ -5703,15 +6116,19 @@
         <v>0.23</v>
       </c>
       <c r="K8" s="1">
-        <f>ROUND(J8/(LM!B$17+LM!B$18*'CP 1'!I8),2)</f>
+        <f>ROUND(J8/(LM!B$17+LM!B$18*'CP 1. part'!I8),2)</f>
         <v>0.12</v>
       </c>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-    </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="137"/>
-      <c r="C9" s="131"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="O8" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="170"/>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="135"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="28">
         <v>5</v>
       </c>
@@ -5735,15 +6152,17 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="K9" s="1">
-        <f>ROUND(J9/(LM!B$17+LM!B$18*'CP 1'!I9),2)</f>
+        <f>ROUND(J9/(LM!B$17+LM!B$18*'CP 1. part'!I9),2)</f>
         <v>0.2</v>
       </c>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
     </row>
     <row r="10" spans="2:17" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="137"/>
-      <c r="C10" s="131"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="28">
         <v>6</v>
       </c>
@@ -5767,18 +6186,19 @@
         <v>5.74</v>
       </c>
       <c r="K10" s="1">
-        <f>ROUND(J10/(LM!B$17+LM!B$18*'CP 1'!I10),2)</f>
+        <f>ROUND(J10/(LM!B$17+LM!B$18*'CP 1. part'!I10),2)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="O10" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="162"/>
     </row>
     <row r="11" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="137"/>
-      <c r="C11" s="131"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="28">
         <v>7</v>
       </c>
@@ -5802,21 +6222,21 @@
         <v>3.0399999999999991</v>
       </c>
       <c r="K11" s="1">
-        <f>ROUND(J11/(LM!B$17+LM!B$18*'CP 1'!I11),2)</f>
+        <f>ROUND(J11/(LM!B$17+LM!B$18*'CP 1. part'!I11),2)</f>
         <v>0.33</v>
       </c>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="27">
-        <v>1.72</v>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="O11" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="164">
+        <v>1.07</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="28">
         <v>8</v>
       </c>
@@ -5840,21 +6260,21 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="K12" s="1">
-        <f>ROUND(J12/(LM!B$17+LM!B$18*'CP 1'!I12),2)</f>
+        <f>ROUND(J12/(LM!B$17+LM!B$18*'CP 1. part'!I12),2)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="29">
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="O12" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="72">
         <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="137"/>
-      <c r="C13" s="131"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="28">
         <v>9</v>
       </c>
@@ -5878,22 +6298,21 @@
         <v>0.06</v>
       </c>
       <c r="K13" s="1">
-        <f>ROUND(J13/(LM!B$17+LM!B$18*'CP 1'!I13),2)</f>
+        <f>ROUND(J13/(LM!B$17+LM!B$18*'CP 1. part'!I13),2)</f>
         <v>0.03</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="29">
-        <f>ROUND(L20,2)</f>
-        <v>1.07</v>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="O13" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="72">
+        <v>1.24</v>
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="137"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="28">
         <v>10</v>
       </c>
@@ -5917,21 +6336,21 @@
         <v>10.429999999999996</v>
       </c>
       <c r="K14" s="1">
-        <f>ROUND(J14/(LM!B$17+LM!B$18*'CP 1'!I14),2)</f>
+        <f>ROUND(J14/(LM!B$17+LM!B$18*'CP 1. part'!I14),2)</f>
         <v>0.69</v>
       </c>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>22</v>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="O14" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="165" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
-      <c r="C15" s="131"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="28">
         <v>11</v>
       </c>
@@ -5955,21 +6374,21 @@
         <v>5.2199999999999989</v>
       </c>
       <c r="K15" s="1">
-        <f>ROUND(J15/(LM!B$17+LM!B$18*'CP 1'!I15),2)</f>
+        <f>ROUND(J15/(LM!B$17+LM!B$18*'CP 1. part'!I15),2)</f>
         <v>0.95</v>
       </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>22</v>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="O15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="165" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="137"/>
-      <c r="C16" s="131"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="28">
         <v>12</v>
       </c>
@@ -5993,21 +6412,21 @@
         <v>1.3299999999999998</v>
       </c>
       <c r="K16" s="1">
-        <f>ROUND(J16/(LM!B$17+LM!B$18*'CP 1'!I16),2)</f>
+        <f>ROUND(J16/(LM!B$17+LM!B$18*'CP 1. part'!I16),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>22</v>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="O16" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="165" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="137"/>
-      <c r="C17" s="131"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="28">
         <v>13</v>
       </c>
@@ -6031,21 +6450,21 @@
         <v>3.4</v>
       </c>
       <c r="K17" s="1">
-        <f>ROUND(J17/(LM!B$17+LM!B$18*'CP 1'!I17),2)</f>
+        <f>ROUND(J17/(LM!B$17+LM!B$18*'CP 1. part'!I17),2)</f>
         <v>0.83</v>
       </c>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>22</v>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="O17" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="165" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="137"/>
-      <c r="C18" s="131"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="28">
         <v>14</v>
       </c>
@@ -6069,21 +6488,21 @@
         <v>2.1399999999999997</v>
       </c>
       <c r="K18" s="1">
-        <f>ROUND(J18/(LM!B$17+LM!B$18*'CP 1'!I18),2)</f>
+        <f>ROUND(J18/(LM!B$17+LM!B$18*'CP 1. part'!I18),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="33">
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="O18" s="166" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="167">
         <v>1.59</v>
       </c>
     </row>
     <row r="19" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="137"/>
-      <c r="C19" s="131"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="28">
         <v>15</v>
       </c>
@@ -6107,29 +6526,30 @@
         <v>0.73000000000000043</v>
       </c>
       <c r="K19" s="1">
-        <f>ROUND(J19/(LM!B$17+LM!B$18*'CP 1'!I19),2)</f>
+        <f>ROUND(J19/(LM!B$17+LM!B$18*'CP 1. part'!I19),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="25"/>
-    </row>
-    <row r="20" spans="2:20" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="137"/>
-      <c r="C20" s="132"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="72"/>
+    </row>
+    <row r="20" spans="2:20" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="135"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="30">
         <v>16</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>817</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>429</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>366</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>6.67</v>
       </c>
       <c r="I20" s="31">
@@ -6140,7 +6560,7 @@
         <v>0.53000000000000025</v>
       </c>
       <c r="K20" s="1">
-        <f>ROUND(J20/(LM!B$17+LM!B$18*'CP 1'!I20),2)</f>
+        <f>ROUND(J20/(LM!B$17+LM!B$18*'CP 1. part'!I20),2)</f>
         <v>0.12</v>
       </c>
       <c r="L20" s="25">
@@ -6148,78 +6568,78 @@
         <v>1.07</v>
       </c>
       <c r="M20" s="24"/>
-      <c r="N20" s="25" t="s">
+      <c r="O20" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="104">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="135"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="25">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="137"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="22" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="137"/>
-      <c r="C22" s="130" t="s">
-        <v>5</v>
+      <c r="B22" s="135"/>
+      <c r="C22" s="128" t="s">
+        <v>4</v>
       </c>
       <c r="D22" s="26">
         <v>17</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="32">
         <v>947</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="32">
         <v>73</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="32">
         <v>185</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="32">
         <v>29.25</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="32">
         <v>16.48</v>
       </c>
-      <c r="J22" s="36" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I22-L$20*(LM!B$17+LM!B$18*'CP 1'!I22)),2),", ",I22+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I22),2),"]")</f>
+      <c r="J22" s="34" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I22-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I22)),2),", ",I22+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I22),2),"]")</f>
         <v>[8.56, 24.4]</v>
       </c>
-      <c r="K22" s="36">
-        <f t="shared" ref="K22:K37" si="1">IF(AND(H22&gt;=S22,H22&lt;=T22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="48"/>
+      <c r="K22" s="34">
+        <f>IF(AND(H22&gt;=S22,H22&lt;=T22),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="46"/>
       <c r="S22" s="1">
-        <f>ROUND(MAX(0,I22-L$20*(LM!B$17+LM!B$18*'CP 1'!I22)),2)</f>
+        <f>ROUND(MAX(0,I22-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I22)),2)</f>
         <v>8.56</v>
       </c>
       <c r="T22" s="1">
-        <f>I22+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I22),2)</f>
+        <f>I22+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I22),2)</f>
         <v>24.4</v>
       </c>
     </row>
     <row r="23" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="137"/>
-      <c r="C23" s="131"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="28">
         <v>18</v>
       </c>
@@ -6238,30 +6658,30 @@
       <c r="I23" s="1">
         <v>0.63</v>
       </c>
-      <c r="J23" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I23-L$20*(LM!B$17+LM!B$18*'CP 1'!I23)),2),", ",I23+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I23),2),"]")</f>
+      <c r="J23" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I23-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I23)),2),", ",I23+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I23),2),"]")</f>
         <v>[0, 2.85]</v>
       </c>
-      <c r="K23" s="37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="48"/>
+      <c r="K23" s="35">
+        <f t="shared" ref="K22:K37" si="1">IF(AND(H23&gt;=S23,H23&lt;=T23),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="46"/>
       <c r="S23" s="1">
-        <f>ROUND(MAX(0,I23-L$20*(LM!B$17+LM!B$18*'CP 1'!I23)),2)</f>
+        <f>ROUND(MAX(0,I23-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I23)),2)</f>
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <f>I23+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I23),2)</f>
+        <f>I23+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I23),2)</f>
         <v>2.85</v>
       </c>
     </row>
     <row r="24" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="137"/>
-      <c r="C24" s="131"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="28">
         <v>19</v>
       </c>
@@ -6280,30 +6700,30 @@
       <c r="I24" s="1">
         <v>1.21</v>
       </c>
-      <c r="J24" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I24-L$20*(LM!B$17+LM!B$18*'CP 1'!I24)),2),", ",I24+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I24),2),"]")</f>
+      <c r="J24" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I24-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I24)),2),", ",I24+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I24),2),"]")</f>
         <v>[0, 3.64]</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="48"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="46"/>
       <c r="S24" s="1">
-        <f>ROUND(MAX(0,I24-L$20*(LM!B$17+LM!B$18*'CP 1'!I24)),2)</f>
+        <f>ROUND(MAX(0,I24-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I24)),2)</f>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f>I24+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I24),2)</f>
+        <f>I24+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I24),2)</f>
         <v>3.64</v>
       </c>
     </row>
     <row r="25" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="137"/>
-      <c r="C25" s="131"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="28">
         <v>20</v>
       </c>
@@ -6322,30 +6742,30 @@
       <c r="I25" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J25" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I25-L$20*(LM!B$17+LM!B$18*'CP 1'!I25)),2),", ",I25+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I25),2),"]")</f>
+      <c r="J25" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I25-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I25)),2),", ",I25+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I25),2),"]")</f>
         <v>[0, 2.75]</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="48"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="46"/>
       <c r="S25" s="1">
-        <f>ROUND(MAX(0,I25-L$20*(LM!B$17+LM!B$18*'CP 1'!I25)),2)</f>
+        <f>ROUND(MAX(0,I25-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I25)),2)</f>
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f>I25+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I25),2)</f>
+        <f>I25+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I25),2)</f>
         <v>2.75</v>
       </c>
     </row>
     <row r="26" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="137"/>
-      <c r="C26" s="131"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="28">
         <v>21</v>
       </c>
@@ -6364,30 +6784,30 @@
       <c r="I26" s="1">
         <v>14.16</v>
       </c>
-      <c r="J26" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I26-L$20*(LM!B$17+LM!B$18*'CP 1'!I26)),2),", ",I26+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I26),2),"]")</f>
+      <c r="J26" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I26-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I26)),2),", ",I26+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I26),2),"]")</f>
         <v>[7.07, 21.25]</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="35">
         <f>IF(AND(H26&gt;=S26,H26&lt;=T26),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="48"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="46"/>
       <c r="S26" s="1">
-        <f>ROUND(MAX(0,I26-L$20*(LM!B$17+LM!B$18*'CP 1'!I26)),2)</f>
+        <f>ROUND(MAX(0,I26-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I26)),2)</f>
         <v>7.07</v>
       </c>
       <c r="T26" s="1">
-        <f>I26+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I26),2)</f>
+        <f>I26+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I26),2)</f>
         <v>21.25</v>
       </c>
     </row>
     <row r="27" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="137"/>
-      <c r="C27" s="131"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="28">
         <v>22</v>
       </c>
@@ -6406,30 +6826,30 @@
       <c r="I27" s="1">
         <v>4.18</v>
       </c>
-      <c r="J27" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I27-L$20*(LM!B$17+LM!B$18*'CP 1'!I27)),2),", ",I27+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I27),2),"]")</f>
+      <c r="J27" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I27-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I27)),2),", ",I27+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I27),2),"]")</f>
         <v>[0.68, 7.68]</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="35">
         <f>IF(AND(H27&gt;=S27,H27&lt;=T27),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="48"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="46"/>
       <c r="S27" s="1">
-        <f>ROUND(MAX(0,I27-L$20*(LM!B$17+LM!B$18*'CP 1'!I27)),2)</f>
+        <f>ROUND(MAX(0,I27-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I27)),2)</f>
         <v>0.68</v>
       </c>
       <c r="T27" s="1">
-        <f>I27+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I27),2)</f>
+        <f>I27+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I27),2)</f>
         <v>7.68</v>
       </c>
     </row>
     <row r="28" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="137"/>
-      <c r="C28" s="131"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="28">
         <v>23</v>
       </c>
@@ -6448,30 +6868,30 @@
       <c r="I28" s="1">
         <v>5.91</v>
       </c>
-      <c r="J28" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I28-L$20*(LM!B$17+LM!B$18*'CP 1'!I28)),2),", ",I28+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I28),2),"]")</f>
+      <c r="J28" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I28-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I28)),2),", ",I28+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I28),2),"]")</f>
         <v>[1.79, 10.03]</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="48"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="46"/>
       <c r="S28" s="1">
-        <f>ROUND(MAX(0,I28-L$20*(LM!B$17+LM!B$18*'CP 1'!I28)),2)</f>
+        <f>ROUND(MAX(0,I28-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I28)),2)</f>
         <v>1.79</v>
       </c>
       <c r="T28" s="1">
-        <f>I28+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I28),2)</f>
+        <f>I28+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I28),2)</f>
         <v>10.030000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="137"/>
-      <c r="C29" s="131"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="28">
         <v>24</v>
       </c>
@@ -6490,30 +6910,30 @@
       <c r="I29" s="1">
         <v>14.5</v>
       </c>
-      <c r="J29" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I29-L$20*(LM!B$17+LM!B$18*'CP 1'!I29)),2),", ",I29+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I29),2),"]")</f>
+      <c r="J29" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I29-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I29)),2),", ",I29+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I29),2),"]")</f>
         <v>[7.29, 21.71]</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="48"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="46"/>
       <c r="S29" s="1">
-        <f>ROUND(MAX(0,I29-L$20*(LM!B$17+LM!B$18*'CP 1'!I29)),2)</f>
+        <f>ROUND(MAX(0,I29-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I29)),2)</f>
         <v>7.29</v>
       </c>
       <c r="T29" s="1">
-        <f>I29+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I29),2)</f>
+        <f>I29+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I29),2)</f>
         <v>21.71</v>
       </c>
     </row>
     <row r="30" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="137"/>
-      <c r="C30" s="131"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="28">
         <v>25</v>
       </c>
@@ -6532,30 +6952,30 @@
       <c r="I30" s="1">
         <v>0.34</v>
       </c>
-      <c r="J30" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I30-L$20*(LM!B$17+LM!B$18*'CP 1'!I30)),2),", ",I30+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I30),2),"]")</f>
+      <c r="J30" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I30-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I30)),2),", ",I30+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I30),2),"]")</f>
         <v>[0, 2.45]</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="48"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="46"/>
       <c r="S30" s="1">
-        <f>ROUND(MAX(0,I30-L$20*(LM!B$17+LM!B$18*'CP 1'!I30)),2)</f>
+        <f>ROUND(MAX(0,I30-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I30)),2)</f>
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <f>I30+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I30),2)</f>
+        <f>I30+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I30),2)</f>
         <v>2.4499999999999997</v>
       </c>
     </row>
     <row r="31" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="137"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="28">
         <v>26</v>
       </c>
@@ -6574,30 +6994,30 @@
       <c r="I31" s="1">
         <v>10.31</v>
       </c>
-      <c r="J31" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I31-L$20*(LM!B$17+LM!B$18*'CP 1'!I31)),2),", ",I31+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I31),2),"]")</f>
+      <c r="J31" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I31-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I31)),2),", ",I31+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I31),2),"]")</f>
         <v>[4.61, 16.01]</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="48"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="46"/>
       <c r="S31" s="1">
-        <f>ROUND(MAX(0,I31-L$20*(LM!B$17+LM!B$18*'CP 1'!I31)),2)</f>
+        <f>ROUND(MAX(0,I31-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I31)),2)</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="T31" s="1">
-        <f>I31+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I31),2)</f>
+        <f>I31+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I31),2)</f>
         <v>16.010000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="137"/>
-      <c r="C32" s="131"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="28">
         <v>27</v>
       </c>
@@ -6616,30 +7036,30 @@
       <c r="I32" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J32" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I32-L$20*(LM!B$17+LM!B$18*'CP 1'!I32)),2),", ",I32+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I32),2),"]")</f>
+      <c r="J32" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I32-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I32)),2),", ",I32+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I32),2),"]")</f>
         <v>[0, 2.74]</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="48"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="46"/>
       <c r="S32" s="1">
-        <f>ROUND(MAX(0,I32-L$20*(LM!B$17+LM!B$18*'CP 1'!I32)),2)</f>
+        <f>ROUND(MAX(0,I32-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I32)),2)</f>
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <f>I32+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I32),2)</f>
+        <f>I32+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I32),2)</f>
         <v>2.74</v>
       </c>
     </row>
     <row r="33" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
-      <c r="C33" s="131"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="28">
         <v>28</v>
       </c>
@@ -6658,30 +7078,30 @@
       <c r="I33" s="1">
         <v>2.4</v>
       </c>
-      <c r="J33" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I33-L$20*(LM!B$17+LM!B$18*'CP 1'!I33)),2),", ",I33+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I33),2),"]")</f>
+      <c r="J33" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I33-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I33)),2),", ",I33+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I33),2),"]")</f>
         <v>[0, 5.26]</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
-      <c r="O33" s="48"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="46"/>
       <c r="S33" s="1">
-        <f>ROUND(MAX(0,I33-L$20*(LM!B$17+LM!B$18*'CP 1'!I33)),2)</f>
+        <f>ROUND(MAX(0,I33-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I33)),2)</f>
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <f>I33+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I33),2)</f>
+        <f>I33+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I33),2)</f>
         <v>5.26</v>
       </c>
     </row>
     <row r="34" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
-      <c r="C34" s="131"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="28">
         <v>29</v>
       </c>
@@ -6700,30 +7120,30 @@
       <c r="I34" s="1">
         <v>0.48</v>
       </c>
-      <c r="J34" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I34-L$20*(LM!B$17+LM!B$18*'CP 1'!I34)),2),", ",I34+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I34),2),"]")</f>
+      <c r="J34" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I34-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I34)),2),", ",I34+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I34),2),"]")</f>
         <v>[0, 2.65]</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="48"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="46"/>
       <c r="S34" s="1">
-        <f>ROUND(MAX(0,I34-L$20*(LM!B$17+LM!B$18*'CP 1'!I34)),2)</f>
+        <f>ROUND(MAX(0,I34-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I34)),2)</f>
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f>I34+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I34),2)</f>
+        <f>I34+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I34),2)</f>
         <v>2.65</v>
       </c>
     </row>
     <row r="35" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="137"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="28">
         <v>30</v>
       </c>
@@ -6742,30 +7162,30 @@
       <c r="I35" s="1">
         <v>8.4</v>
       </c>
-      <c r="J35" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I35-L$20*(LM!B$17+LM!B$18*'CP 1'!I35)),2),", ",I35+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I35),2),"]")</f>
+      <c r="J35" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I35-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I35)),2),", ",I35+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I35),2),"]")</f>
         <v>[3.39, 13.41]</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L35" s="138"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="48"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="46"/>
       <c r="S35" s="1">
-        <f>ROUND(MAX(0,I35-L$20*(LM!B$17+LM!B$18*'CP 1'!I35)),2)</f>
+        <f>ROUND(MAX(0,I35-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I35)),2)</f>
         <v>3.39</v>
       </c>
       <c r="T35" s="1">
-        <f>I35+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I35),2)</f>
+        <f>I35+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I35),2)</f>
         <v>13.41</v>
       </c>
     </row>
     <row r="36" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="137"/>
-      <c r="C36" s="131"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="28">
         <v>31</v>
       </c>
@@ -6784,66 +7204,66 @@
       <c r="I36" s="1">
         <v>1.58</v>
       </c>
-      <c r="J36" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I36-L$20*(LM!B$17+LM!B$18*'CP 1'!I36)),2),", ",I36+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I36),2),"]")</f>
+      <c r="J36" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I36-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I36)),2),", ",I36+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I36),2),"]")</f>
         <v>[0, 4.14]</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="35">
         <f>IF(AND(H36&gt;=S36,H36&lt;=T36),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="48"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="46"/>
       <c r="S36" s="1">
-        <f>ROUND(MAX(0,I36-L$20*(LM!B$17+LM!B$18*'CP 1'!I36)),2)</f>
+        <f>ROUND(MAX(0,I36-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I36)),2)</f>
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <f>I36+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I36),2)</f>
+        <f>I36+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I36),2)</f>
         <v>4.1400000000000006</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="137"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="130"/>
       <c r="D37" s="30">
         <v>32</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="33">
         <v>238</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="33">
         <v>855</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="33">
         <v>429</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="33">
         <v>0.9</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="33">
         <v>1.69</v>
       </c>
-      <c r="J37" s="38" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I37-L$20*(LM!B$17+LM!B$18*'CP 1'!I37)),2),", ",I37+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I37),2),"]")</f>
+      <c r="J37" s="36" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,I37-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I37)),2),", ",I37+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I37),2),"]")</f>
         <v>[0, 4.29]</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="48"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="46"/>
       <c r="S37" s="1">
-        <f>ROUND(MAX(0,I37-L$20*(LM!B$17+LM!B$18*'CP 1'!I37)),2)</f>
+        <f>ROUND(MAX(0,I37-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I37)),2)</f>
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f>I37+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1'!I37),2)</f>
+        <f>I37+ROUND(L$20*(LM!B$17+LM!B$18*'CP 1. part'!I37),2)</f>
         <v>4.29</v>
       </c>
     </row>
@@ -6854,7 +7274,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="O8:P9"/>
     <mergeCell ref="C5:C20"/>
     <mergeCell ref="C22:C37"/>
     <mergeCell ref="B5:B37"/>
@@ -6870,8 +7291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9750A8F5-A2B1-4E18-9C47-5331C8CFD2B2}">
   <dimension ref="C3:U36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6879,45 +7300,46 @@
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="13" max="16" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:21" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>13</v>
+      <c r="F4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="172" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.3">
@@ -6939,15 +7361,15 @@
       <c r="H5" s="1">
         <v>1.03</v>
       </c>
-      <c r="I5" s="50">
-        <f>(LM!B$17+LM!B$18*H5)*'CP 1'!O$20</f>
+      <c r="I5" s="48">
+        <f>(LM!B$17+LM!B$18*H5)*'CP 1. part'!P$20</f>
         <v>3.1800752767228091</v>
       </c>
-      <c r="J5" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H5-(LM!B$17+LM!B$18*H5)*'CP 1'!O$20),2),", ",ROUND(H5+(LM!B$17+LM!B$18*H5)*'CP 1'!O$20,2),"]")</f>
+      <c r="J5" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H5-(LM!B$17+LM!B$18*H5)*'CP 1. part'!P$20),2),", ",ROUND(H5+(LM!B$17+LM!B$18*H5)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 4.21]</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="47">
         <f>IF(AND(G5&gt;=T5,G5&lt;=U5),1,0)</f>
         <v>1</v>
       </c>
@@ -6956,11 +7378,11 @@
         <v>0.9375</v>
       </c>
       <c r="T5">
-        <f>ROUND(MAX(0,H5-(LM!B$17+LM!B$18*H5)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H5-(LM!B$17+LM!B$18*H5)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>ROUND(H5+(LM!B$17+LM!B$18*H5)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H5+(LM!B$17+LM!B$18*H5)*'CP 1. part'!P$20,2)</f>
         <v>4.21</v>
       </c>
     </row>
@@ -6983,12 +7405,12 @@
       <c r="H6" s="1">
         <v>12.83</v>
       </c>
-      <c r="I6" s="50">
-        <f>(LM!B$17+LM!B$18*H6)*'CP 1'!O$20</f>
+      <c r="I6" s="48">
+        <f>(LM!B$17+LM!B$18*H6)*'CP 1. part'!P$20</f>
         <v>8.8924015092331121</v>
       </c>
-      <c r="J6" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H6-(LM!B$17+LM!B$18*H6)*'CP 1'!O$20),2),", ",ROUND(H6+(LM!B$17+LM!B$18*H6)*'CP 1'!O$20,2),"]")</f>
+      <c r="J6" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H6-(LM!B$17+LM!B$18*H6)*'CP 1. part'!P$20),2),", ",ROUND(H6+(LM!B$17+LM!B$18*H6)*'CP 1. part'!P$20,2),"]")</f>
         <v>[3.94, 21.72]</v>
       </c>
       <c r="K6" s="29">
@@ -6996,11 +7418,11 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <f>ROUND(MAX(0,H6-(LM!B$17+LM!B$18*H6)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H6-(LM!B$17+LM!B$18*H6)*'CP 1. part'!P$20),2)</f>
         <v>3.94</v>
       </c>
       <c r="U6">
-        <f>ROUND(H6+(LM!B$17+LM!B$18*H6)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H6+(LM!B$17+LM!B$18*H6)*'CP 1. part'!P$20,2)</f>
         <v>21.72</v>
       </c>
     </row>
@@ -7023,24 +7445,30 @@
       <c r="H7" s="1">
         <v>4.8</v>
       </c>
-      <c r="I7" s="50">
-        <f>(LM!B$17+LM!B$18*H7)*'CP 1'!O$20</f>
+      <c r="I7" s="48">
+        <f>(LM!B$17+LM!B$18*H7)*'CP 1. part'!P$20</f>
         <v>5.0051150984655077</v>
       </c>
-      <c r="J7" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H7-(LM!B$17+LM!B$18*H7)*'CP 1'!O$20),2),", ",ROUND(H7+(LM!B$17+LM!B$18*H7)*'CP 1'!O$20,2),"]")</f>
+      <c r="J7" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H7-(LM!B$17+LM!B$18*H7)*'CP 1. part'!P$20),2),", ",ROUND(H7+(LM!B$17+LM!B$18*H7)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 9.81]</v>
       </c>
       <c r="K7" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M7" s="136" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
       <c r="T7">
-        <f>ROUND(MAX(0,H7-(LM!B$17+LM!B$18*H7)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H7-(LM!B$17+LM!B$18*H7)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>ROUND(H7+(LM!B$17+LM!B$18*H7)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H7+(LM!B$17+LM!B$18*H7)*'CP 1. part'!P$20,2)</f>
         <v>9.81</v>
       </c>
     </row>
@@ -7063,24 +7491,28 @@
       <c r="H8" s="1">
         <v>0.1</v>
       </c>
-      <c r="I8" s="50">
-        <f>(LM!B$17+LM!B$18*H8)*'CP 1'!O$20</f>
+      <c r="I8" s="48">
+        <f>(LM!B$17+LM!B$18*H8)*'CP 1. part'!P$20</f>
         <v>2.7298665143300478</v>
       </c>
-      <c r="J8" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H8-(LM!B$17+LM!B$18*H8)*'CP 1'!O$20),2),", ",ROUND(H8+(LM!B$17+LM!B$18*H8)*'CP 1'!O$20,2),"]")</f>
+      <c r="J8" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H8-(LM!B$17+LM!B$18*H8)*'CP 1. part'!P$20),2),", ",ROUND(H8+(LM!B$17+LM!B$18*H8)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 2.83]</v>
       </c>
       <c r="K8" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
       <c r="T8">
-        <f>ROUND(MAX(0,H8-(LM!B$17+LM!B$18*H8)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H8-(LM!B$17+LM!B$18*H8)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>ROUND(H8+(LM!B$17+LM!B$18*H8)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H8+(LM!B$17+LM!B$18*H8)*'CP 1. part'!P$20,2)</f>
         <v>2.83</v>
       </c>
     </row>
@@ -7103,24 +7535,28 @@
       <c r="H9" s="1">
         <v>2.23</v>
       </c>
-      <c r="I9" s="50">
-        <f>(LM!B$17+LM!B$18*H9)*'CP 1'!O$20</f>
+      <c r="I9" s="48">
+        <f>(LM!B$17+LM!B$18*H9)*'CP 1. part'!P$20</f>
         <v>3.7609898088425009</v>
       </c>
-      <c r="J9" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H9-(LM!B$17+LM!B$18*H9)*'CP 1'!O$20),2),", ",ROUND(H9+(LM!B$17+LM!B$18*H9)*'CP 1'!O$20,2),"]")</f>
+      <c r="J9" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H9-(LM!B$17+LM!B$18*H9)*'CP 1. part'!P$20),2),", ",ROUND(H9+(LM!B$17+LM!B$18*H9)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 5.99]</v>
       </c>
       <c r="K9" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
       <c r="T9">
-        <f>ROUND(MAX(0,H9-(LM!B$17+LM!B$18*H9)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H9-(LM!B$17+LM!B$18*H9)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>ROUND(H9+(LM!B$17+LM!B$18*H9)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H9+(LM!B$17+LM!B$18*H9)*'CP 1. part'!P$20,2)</f>
         <v>5.99</v>
       </c>
     </row>
@@ -7143,24 +7579,28 @@
       <c r="H10" s="1">
         <v>1.33</v>
       </c>
-      <c r="I10" s="50">
-        <f>(LM!B$17+LM!B$18*H10)*'CP 1'!O$20</f>
+      <c r="I10" s="48">
+        <f>(LM!B$17+LM!B$18*H10)*'CP 1. part'!P$20</f>
         <v>3.3253039097527322</v>
       </c>
-      <c r="J10" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H10-(LM!B$17+LM!B$18*H10)*'CP 1'!O$20),2),", ",ROUND(H10+(LM!B$17+LM!B$18*H10)*'CP 1'!O$20,2),"]")</f>
+      <c r="J10" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H10-(LM!B$17+LM!B$18*H10)*'CP 1. part'!P$20),2),", ",ROUND(H10+(LM!B$17+LM!B$18*H10)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 4.66]</v>
       </c>
       <c r="K10" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
       <c r="T10">
-        <f>ROUND(MAX(0,H10-(LM!B$17+LM!B$18*H10)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H10-(LM!B$17+LM!B$18*H10)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>ROUND(H10+(LM!B$17+LM!B$18*H10)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H10+(LM!B$17+LM!B$18*H10)*'CP 1. part'!P$20,2)</f>
         <v>4.66</v>
       </c>
     </row>
@@ -7183,24 +7623,28 @@
       <c r="H11" s="1">
         <v>1.38</v>
       </c>
-      <c r="I11" s="50">
-        <f>(LM!B$17+LM!B$18*H11)*'CP 1'!O$20</f>
+      <c r="I11" s="48">
+        <f>(LM!B$17+LM!B$18*H11)*'CP 1. part'!P$20</f>
         <v>3.349508681924386</v>
       </c>
-      <c r="J11" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H11-(LM!B$17+LM!B$18*H11)*'CP 1'!O$20),2),", ",ROUND(H11+(LM!B$17+LM!B$18*H11)*'CP 1'!O$20,2),"]")</f>
+      <c r="J11" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H11-(LM!B$17+LM!B$18*H11)*'CP 1. part'!P$20),2),", ",ROUND(H11+(LM!B$17+LM!B$18*H11)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 4.73]</v>
       </c>
       <c r="K11" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="136"/>
       <c r="T11">
-        <f>ROUND(MAX(0,H11-(LM!B$17+LM!B$18*H11)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H11-(LM!B$17+LM!B$18*H11)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>ROUND(H11+(LM!B$17+LM!B$18*H11)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H11+(LM!B$17+LM!B$18*H11)*'CP 1. part'!P$20,2)</f>
         <v>4.7300000000000004</v>
       </c>
     </row>
@@ -7223,24 +7667,28 @@
       <c r="H12" s="1">
         <v>7.92</v>
       </c>
-      <c r="I12" s="50">
-        <f>(LM!B$17+LM!B$18*H12)*'CP 1'!O$20</f>
+      <c r="I12" s="48">
+        <f>(LM!B$17+LM!B$18*H12)*'CP 1. part'!P$20</f>
         <v>6.5154928819767068</v>
       </c>
-      <c r="J12" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H12-(LM!B$17+LM!B$18*H12)*'CP 1'!O$20),2),", ",ROUND(H12+(LM!B$17+LM!B$18*H12)*'CP 1'!O$20,2),"]")</f>
+      <c r="J12" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H12-(LM!B$17+LM!B$18*H12)*'CP 1. part'!P$20),2),", ",ROUND(H12+(LM!B$17+LM!B$18*H12)*'CP 1. part'!P$20,2),"]")</f>
         <v>[1.4, 14.44]</v>
       </c>
       <c r="K12" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
       <c r="T12">
-        <f>ROUND(MAX(0,H12-(LM!B$17+LM!B$18*H12)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H12-(LM!B$17+LM!B$18*H12)*'CP 1. part'!P$20),2)</f>
         <v>1.4</v>
       </c>
       <c r="U12">
-        <f>ROUND(H12+(LM!B$17+LM!B$18*H12)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H12+(LM!B$17+LM!B$18*H12)*'CP 1. part'!P$20,2)</f>
         <v>14.44</v>
       </c>
     </row>
@@ -7263,24 +7711,28 @@
       <c r="H13" s="1">
         <v>4.72</v>
       </c>
-      <c r="I13" s="50">
-        <f>(LM!B$17+LM!B$18*H13)*'CP 1'!O$20</f>
+      <c r="I13" s="48">
+        <f>(LM!B$17+LM!B$18*H13)*'CP 1. part'!P$20</f>
         <v>4.9663874629908618</v>
       </c>
-      <c r="J13" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H13-(LM!B$17+LM!B$18*H13)*'CP 1'!O$20),2),", ",ROUND(H13+(LM!B$17+LM!B$18*H13)*'CP 1'!O$20,2),"]")</f>
+      <c r="J13" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H13-(LM!B$17+LM!B$18*H13)*'CP 1. part'!P$20),2),", ",ROUND(H13+(LM!B$17+LM!B$18*H13)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 9.69]</v>
       </c>
       <c r="K13" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
       <c r="T13">
-        <f>ROUND(MAX(0,H13-(LM!B$17+LM!B$18*H13)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H13-(LM!B$17+LM!B$18*H13)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U13">
-        <f>ROUND(H13+(LM!B$17+LM!B$18*H13)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H13+(LM!B$17+LM!B$18*H13)*'CP 1. part'!P$20,2)</f>
         <v>9.69</v>
       </c>
     </row>
@@ -7303,24 +7755,28 @@
       <c r="H14" s="1">
         <v>0.74</v>
       </c>
-      <c r="I14" s="50">
-        <f>(LM!B$17+LM!B$18*H14)*'CP 1'!O$20</f>
+      <c r="I14" s="48">
+        <f>(LM!B$17+LM!B$18*H14)*'CP 1. part'!P$20</f>
         <v>3.0396875981272165</v>
       </c>
-      <c r="J14" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H14-(LM!B$17+LM!B$18*H14)*'CP 1'!O$20),2),", ",ROUND(H14+(LM!B$17+LM!B$18*H14)*'CP 1'!O$20,2),"]")</f>
+      <c r="J14" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H14-(LM!B$17+LM!B$18*H14)*'CP 1. part'!P$20),2),", ",ROUND(H14+(LM!B$17+LM!B$18*H14)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 3.78]</v>
       </c>
       <c r="K14" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
       <c r="T14">
-        <f>ROUND(MAX(0,H14-(LM!B$17+LM!B$18*H14)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H14-(LM!B$17+LM!B$18*H14)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>ROUND(H14+(LM!B$17+LM!B$18*H14)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H14+(LM!B$17+LM!B$18*H14)*'CP 1. part'!P$20,2)</f>
         <v>3.78</v>
       </c>
     </row>
@@ -7343,24 +7799,28 @@
       <c r="H15" s="1">
         <v>18.53</v>
       </c>
-      <c r="I15" s="50">
-        <f>(LM!B$17+LM!B$18*H15)*'CP 1'!O$20</f>
+      <c r="I15" s="48">
+        <f>(LM!B$17+LM!B$18*H15)*'CP 1. part'!P$20</f>
         <v>11.65174553680165</v>
       </c>
-      <c r="J15" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H15-(LM!B$17+LM!B$18*H15)*'CP 1'!O$20),2),", ",ROUND(H15+(LM!B$17+LM!B$18*H15)*'CP 1'!O$20,2),"]")</f>
+      <c r="J15" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H15-(LM!B$17+LM!B$18*H15)*'CP 1. part'!P$20),2),", ",ROUND(H15+(LM!B$17+LM!B$18*H15)*'CP 1. part'!P$20,2),"]")</f>
         <v>[6.88, 30.18]</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
       <c r="T15">
-        <f>ROUND(MAX(0,H15-(LM!B$17+LM!B$18*H15)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H15-(LM!B$17+LM!B$18*H15)*'CP 1. part'!P$20),2)</f>
         <v>6.88</v>
       </c>
       <c r="U15">
-        <f>ROUND(H15+(LM!B$17+LM!B$18*H15)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H15+(LM!B$17+LM!B$18*H15)*'CP 1. part'!P$20,2)</f>
         <v>30.18</v>
       </c>
     </row>
@@ -7383,24 +7843,28 @@
       <c r="H16" s="1">
         <v>7.23</v>
       </c>
-      <c r="I16" s="50">
-        <f>(LM!B$17+LM!B$18*H16)*'CP 1'!O$20</f>
+      <c r="I16" s="48">
+        <f>(LM!B$17+LM!B$18*H16)*'CP 1. part'!P$20</f>
         <v>6.1814670260078834</v>
       </c>
-      <c r="J16" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H16-(LM!B$17+LM!B$18*H16)*'CP 1'!O$20),2),", ",ROUND(H16+(LM!B$17+LM!B$18*H16)*'CP 1'!O$20,2),"]")</f>
+      <c r="J16" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H16-(LM!B$17+LM!B$18*H16)*'CP 1. part'!P$20),2),", ",ROUND(H16+(LM!B$17+LM!B$18*H16)*'CP 1. part'!P$20,2),"]")</f>
         <v>[1.05, 13.41]</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
       <c r="T16">
-        <f>ROUND(MAX(0,H16-(LM!B$17+LM!B$18*H16)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H16-(LM!B$17+LM!B$18*H16)*'CP 1. part'!P$20),2)</f>
         <v>1.05</v>
       </c>
       <c r="U16">
-        <f>ROUND(H16+(LM!B$17+LM!B$18*H16)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H16+(LM!B$17+LM!B$18*H16)*'CP 1. part'!P$20,2)</f>
         <v>13.41</v>
       </c>
     </row>
@@ -7423,24 +7887,28 @@
       <c r="H17" s="1">
         <v>1.94</v>
       </c>
-      <c r="I17" s="50">
-        <f>(LM!B$17+LM!B$18*H17)*'CP 1'!O$20</f>
+      <c r="I17" s="48">
+        <f>(LM!B$17+LM!B$18*H17)*'CP 1. part'!P$20</f>
         <v>3.6206021302469087</v>
       </c>
-      <c r="J17" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H17-(LM!B$17+LM!B$18*H17)*'CP 1'!O$20),2),", ",ROUND(H17+(LM!B$17+LM!B$18*H17)*'CP 1'!O$20,2),"]")</f>
+      <c r="J17" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H17-(LM!B$17+LM!B$18*H17)*'CP 1. part'!P$20),2),", ",ROUND(H17+(LM!B$17+LM!B$18*H17)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 5.56]</v>
       </c>
       <c r="K17" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
       <c r="T17">
-        <f>ROUND(MAX(0,H17-(LM!B$17+LM!B$18*H17)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H17-(LM!B$17+LM!B$18*H17)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>ROUND(H17+(LM!B$17+LM!B$18*H17)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H17+(LM!B$17+LM!B$18*H17)*'CP 1. part'!P$20,2)</f>
         <v>5.56</v>
       </c>
     </row>
@@ -7463,24 +7931,28 @@
       <c r="H18" s="1">
         <v>0.08</v>
       </c>
-      <c r="I18" s="50">
-        <f>(LM!B$17+LM!B$18*H18)*'CP 1'!O$20</f>
+      <c r="I18" s="48">
+        <f>(LM!B$17+LM!B$18*H18)*'CP 1. part'!P$20</f>
         <v>2.7201846054613865</v>
       </c>
-      <c r="J18" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H18-(LM!B$17+LM!B$18*H18)*'CP 1'!O$20),2),", ",ROUND(H18+(LM!B$17+LM!B$18*H18)*'CP 1'!O$20,2),"]")</f>
+      <c r="J18" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H18-(LM!B$17+LM!B$18*H18)*'CP 1. part'!P$20),2),", ",ROUND(H18+(LM!B$17+LM!B$18*H18)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 2.8]</v>
       </c>
       <c r="K18" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
       <c r="T18">
-        <f>ROUND(MAX(0,H18-(LM!B$17+LM!B$18*H18)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H18-(LM!B$17+LM!B$18*H18)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>ROUND(H18+(LM!B$17+LM!B$18*H18)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H18+(LM!B$17+LM!B$18*H18)*'CP 1. part'!P$20,2)</f>
         <v>2.8</v>
       </c>
     </row>
@@ -7503,24 +7975,28 @@
       <c r="H19" s="1">
         <v>0.81</v>
       </c>
-      <c r="I19" s="50">
-        <f>(LM!B$17+LM!B$18*H19)*'CP 1'!O$20</f>
+      <c r="I19" s="48">
+        <f>(LM!B$17+LM!B$18*H19)*'CP 1. part'!P$20</f>
         <v>3.073574279167532</v>
       </c>
-      <c r="J19" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H19-(LM!B$17+LM!B$18*H19)*'CP 1'!O$20),2),", ",ROUND(H19+(LM!B$17+LM!B$18*H19)*'CP 1'!O$20,2),"]")</f>
+      <c r="J19" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H19-(LM!B$17+LM!B$18*H19)*'CP 1. part'!P$20),2),", ",ROUND(H19+(LM!B$17+LM!B$18*H19)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 3.88]</v>
       </c>
       <c r="K19" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
       <c r="T19">
-        <f>ROUND(MAX(0,H19-(LM!B$17+LM!B$18*H19)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H19-(LM!B$17+LM!B$18*H19)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>ROUND(H19+(LM!B$17+LM!B$18*H19)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H19+(LM!B$17+LM!B$18*H19)*'CP 1. part'!P$20,2)</f>
         <v>3.88</v>
       </c>
     </row>
@@ -7543,24 +8019,28 @@
       <c r="H20" s="1">
         <v>22.95</v>
       </c>
-      <c r="I20" s="50">
-        <f>(LM!B$17+LM!B$18*H20)*'CP 1'!O$20</f>
+      <c r="I20" s="48">
+        <f>(LM!B$17+LM!B$18*H20)*'CP 1. part'!P$20</f>
         <v>13.791447396775848</v>
       </c>
-      <c r="J20" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H20-(LM!B$17+LM!B$18*H20)*'CP 1'!O$20),2),", ",ROUND(H20+(LM!B$17+LM!B$18*H20)*'CP 1'!O$20,2),"]")</f>
+      <c r="J20" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H20-(LM!B$17+LM!B$18*H20)*'CP 1. part'!P$20),2),", ",ROUND(H20+(LM!B$17+LM!B$18*H20)*'CP 1. part'!P$20,2),"]")</f>
         <v>[9.16, 36.74]</v>
       </c>
       <c r="K20" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
       <c r="T20">
-        <f>ROUND(MAX(0,H20-(LM!B$17+LM!B$18*H20)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H20-(LM!B$17+LM!B$18*H20)*'CP 1. part'!P$20),2)</f>
         <v>9.16</v>
       </c>
       <c r="U20">
-        <f>ROUND(H20+(LM!B$17+LM!B$18*H20)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H20+(LM!B$17+LM!B$18*H20)*'CP 1. part'!P$20,2)</f>
         <v>36.74</v>
       </c>
     </row>
@@ -7583,24 +8063,28 @@
       <c r="H21" s="1">
         <v>17.82</v>
       </c>
-      <c r="I21" s="50">
-        <f>(LM!B$17+LM!B$18*H21)*'CP 1'!O$20</f>
+      <c r="I21" s="48">
+        <f>(LM!B$17+LM!B$18*H21)*'CP 1. part'!P$20</f>
         <v>11.308037771964164</v>
       </c>
-      <c r="J21" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H21-(LM!B$17+LM!B$18*H21)*'CP 1'!O$20),2),", ",ROUND(H21+(LM!B$17+LM!B$18*H21)*'CP 1'!O$20,2),"]")</f>
+      <c r="J21" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H21-(LM!B$17+LM!B$18*H21)*'CP 1. part'!P$20),2),", ",ROUND(H21+(LM!B$17+LM!B$18*H21)*'CP 1. part'!P$20,2),"]")</f>
         <v>[6.51, 29.13]</v>
       </c>
       <c r="K21" s="29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
       <c r="T21">
-        <f>ROUND(MAX(0,H21-(LM!B$17+LM!B$18*H21)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H21-(LM!B$17+LM!B$18*H21)*'CP 1. part'!P$20),2)</f>
         <v>6.51</v>
       </c>
       <c r="U21">
-        <f>ROUND(H21+(LM!B$17+LM!B$18*H21)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H21+(LM!B$17+LM!B$18*H21)*'CP 1. part'!P$20,2)</f>
         <v>29.13</v>
       </c>
     </row>
@@ -7623,24 +8107,28 @@
       <c r="H22" s="1">
         <v>1.72</v>
       </c>
-      <c r="I22" s="50">
-        <f>(LM!B$17+LM!B$18*H22)*'CP 1'!O$20</f>
+      <c r="I22" s="48">
+        <f>(LM!B$17+LM!B$18*H22)*'CP 1. part'!P$20</f>
         <v>3.514101132691632</v>
       </c>
-      <c r="J22" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H22-(LM!B$17+LM!B$18*H22)*'CP 1'!O$20),2),", ",ROUND(H22+(LM!B$17+LM!B$18*H22)*'CP 1'!O$20,2),"]")</f>
+      <c r="J22" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H22-(LM!B$17+LM!B$18*H22)*'CP 1. part'!P$20),2),", ",ROUND(H22+(LM!B$17+LM!B$18*H22)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 5.23]</v>
       </c>
       <c r="K22" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
       <c r="T22">
-        <f>ROUND(MAX(0,H22-(LM!B$17+LM!B$18*H22)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H22-(LM!B$17+LM!B$18*H22)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>ROUND(H22+(LM!B$17+LM!B$18*H22)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H22+(LM!B$17+LM!B$18*H22)*'CP 1. part'!P$20,2)</f>
         <v>5.23</v>
       </c>
     </row>
@@ -7663,12 +8151,12 @@
       <c r="H23" s="1">
         <v>1.93</v>
       </c>
-      <c r="I23" s="50">
-        <f>(LM!B$17+LM!B$18*H23)*'CP 1'!O$20</f>
+      <c r="I23" s="48">
+        <f>(LM!B$17+LM!B$18*H23)*'CP 1. part'!P$20</f>
         <v>3.6157611758125778</v>
       </c>
-      <c r="J23" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H23-(LM!B$17+LM!B$18*H23)*'CP 1'!O$20),2),", ",ROUND(H23+(LM!B$17+LM!B$18*H23)*'CP 1'!O$20,2),"]")</f>
+      <c r="J23" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H23-(LM!B$17+LM!B$18*H23)*'CP 1. part'!P$20),2),", ",ROUND(H23+(LM!B$17+LM!B$18*H23)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 5.55]</v>
       </c>
       <c r="K23" s="29">
@@ -7676,11 +8164,11 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <f>ROUND(MAX(0,H23-(LM!B$17+LM!B$18*H23)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H23-(LM!B$17+LM!B$18*H23)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>ROUND(H23+(LM!B$17+LM!B$18*H23)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H23+(LM!B$17+LM!B$18*H23)*'CP 1. part'!P$20,2)</f>
         <v>5.55</v>
       </c>
     </row>
@@ -7703,12 +8191,12 @@
       <c r="H24" s="1">
         <v>22.8</v>
       </c>
-      <c r="I24" s="50">
-        <f>(LM!B$17+LM!B$18*H24)*'CP 1'!O$20</f>
+      <c r="I24" s="48">
+        <f>(LM!B$17+LM!B$18*H24)*'CP 1. part'!P$20</f>
         <v>13.718833080260888</v>
       </c>
-      <c r="J24" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H24-(LM!B$17+LM!B$18*H24)*'CP 1'!O$20),2),", ",ROUND(H24+(LM!B$17+LM!B$18*H24)*'CP 1'!O$20,2),"]")</f>
+      <c r="J24" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H24-(LM!B$17+LM!B$18*H24)*'CP 1. part'!P$20),2),", ",ROUND(H24+(LM!B$17+LM!B$18*H24)*'CP 1. part'!P$20,2),"]")</f>
         <v>[9.08, 36.52]</v>
       </c>
       <c r="K24" s="29">
@@ -7716,11 +8204,11 @@
         <v>1</v>
       </c>
       <c r="T24">
-        <f>ROUND(MAX(0,H24-(LM!B$17+LM!B$18*H24)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H24-(LM!B$17+LM!B$18*H24)*'CP 1. part'!P$20),2)</f>
         <v>9.08</v>
       </c>
       <c r="U24">
-        <f>ROUND(H24+(LM!B$17+LM!B$18*H24)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H24+(LM!B$17+LM!B$18*H24)*'CP 1. part'!P$20,2)</f>
         <v>36.520000000000003</v>
       </c>
     </row>
@@ -7743,12 +8231,12 @@
       <c r="H25" s="1">
         <v>1.49</v>
       </c>
-      <c r="I25" s="50">
-        <f>(LM!B$17+LM!B$18*H25)*'CP 1'!O$20</f>
+      <c r="I25" s="48">
+        <f>(LM!B$17+LM!B$18*H25)*'CP 1. part'!P$20</f>
         <v>3.4027591807020241</v>
       </c>
-      <c r="J25" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H25-(LM!B$17+LM!B$18*H25)*'CP 1'!O$20),2),", ",ROUND(H25+(LM!B$17+LM!B$18*H25)*'CP 1'!O$20,2),"]")</f>
+      <c r="J25" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H25-(LM!B$17+LM!B$18*H25)*'CP 1. part'!P$20),2),", ",ROUND(H25+(LM!B$17+LM!B$18*H25)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 4.89]</v>
       </c>
       <c r="K25" s="29">
@@ -7756,11 +8244,11 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <f>ROUND(MAX(0,H25-(LM!B$17+LM!B$18*H25)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H25-(LM!B$17+LM!B$18*H25)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>ROUND(H25+(LM!B$17+LM!B$18*H25)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H25+(LM!B$17+LM!B$18*H25)*'CP 1. part'!P$20,2)</f>
         <v>4.8899999999999997</v>
       </c>
     </row>
@@ -7783,12 +8271,12 @@
       <c r="H26" s="1">
         <v>1.75</v>
       </c>
-      <c r="I26" s="50">
-        <f>(LM!B$17+LM!B$18*H26)*'CP 1'!O$20</f>
+      <c r="I26" s="48">
+        <f>(LM!B$17+LM!B$18*H26)*'CP 1. part'!P$20</f>
         <v>3.5286239959946246</v>
       </c>
-      <c r="J26" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H26-(LM!B$17+LM!B$18*H26)*'CP 1'!O$20),2),", ",ROUND(H26+(LM!B$17+LM!B$18*H26)*'CP 1'!O$20,2),"]")</f>
+      <c r="J26" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H26-(LM!B$17+LM!B$18*H26)*'CP 1. part'!P$20),2),", ",ROUND(H26+(LM!B$17+LM!B$18*H26)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 5.28]</v>
       </c>
       <c r="K26" s="29">
@@ -7796,11 +8284,11 @@
         <v>1</v>
       </c>
       <c r="T26">
-        <f>ROUND(MAX(0,H26-(LM!B$17+LM!B$18*H26)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H26-(LM!B$17+LM!B$18*H26)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>ROUND(H26+(LM!B$17+LM!B$18*H26)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H26+(LM!B$17+LM!B$18*H26)*'CP 1. part'!P$20,2)</f>
         <v>5.28</v>
       </c>
     </row>
@@ -7823,12 +8311,12 @@
       <c r="H27" s="1">
         <v>5.35</v>
       </c>
-      <c r="I27" s="50">
-        <f>(LM!B$17+LM!B$18*H27)*'CP 1'!O$20</f>
+      <c r="I27" s="48">
+        <f>(LM!B$17+LM!B$18*H27)*'CP 1. part'!P$20</f>
         <v>5.2713675923537</v>
       </c>
-      <c r="J27" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H27-(LM!B$17+LM!B$18*H27)*'CP 1'!O$20),2),", ",ROUND(H27+(LM!B$17+LM!B$18*H27)*'CP 1'!O$20,2),"]")</f>
+      <c r="J27" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H27-(LM!B$17+LM!B$18*H27)*'CP 1. part'!P$20),2),", ",ROUND(H27+(LM!B$17+LM!B$18*H27)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0.08, 10.62]</v>
       </c>
       <c r="K27" s="29">
@@ -7836,11 +8324,11 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <f>ROUND(MAX(0,H27-(LM!B$17+LM!B$18*H27)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H27-(LM!B$17+LM!B$18*H27)*'CP 1. part'!P$20),2)</f>
         <v>0.08</v>
       </c>
       <c r="U27">
-        <f>ROUND(H27+(LM!B$17+LM!B$18*H27)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H27+(LM!B$17+LM!B$18*H27)*'CP 1. part'!P$20,2)</f>
         <v>10.62</v>
       </c>
     </row>
@@ -7863,12 +8351,12 @@
       <c r="H28" s="1">
         <v>1.25</v>
       </c>
-      <c r="I28" s="50">
-        <f>(LM!B$17+LM!B$18*H28)*'CP 1'!O$20</f>
+      <c r="I28" s="48">
+        <f>(LM!B$17+LM!B$18*H28)*'CP 1. part'!P$20</f>
         <v>3.2865762742780857</v>
       </c>
-      <c r="J28" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H28-(LM!B$17+LM!B$18*H28)*'CP 1'!O$20),2),", ",ROUND(H28+(LM!B$17+LM!B$18*H28)*'CP 1'!O$20,2),"]")</f>
+      <c r="J28" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H28-(LM!B$17+LM!B$18*H28)*'CP 1. part'!P$20),2),", ",ROUND(H28+(LM!B$17+LM!B$18*H28)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 4.54]</v>
       </c>
       <c r="K28" s="29">
@@ -7876,11 +8364,11 @@
         <v>1</v>
       </c>
       <c r="T28">
-        <f>ROUND(MAX(0,H28-(LM!B$17+LM!B$18*H28)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H28-(LM!B$17+LM!B$18*H28)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>ROUND(H28+(LM!B$17+LM!B$18*H28)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H28+(LM!B$17+LM!B$18*H28)*'CP 1. part'!P$20,2)</f>
         <v>4.54</v>
       </c>
     </row>
@@ -7903,12 +8391,12 @@
       <c r="H29" s="1">
         <v>5.09</v>
       </c>
-      <c r="I29" s="50">
-        <f>(LM!B$17+LM!B$18*H29)*'CP 1'!O$20</f>
+      <c r="I29" s="48">
+        <f>(LM!B$17+LM!B$18*H29)*'CP 1. part'!P$20</f>
         <v>5.1455027770610995</v>
       </c>
-      <c r="J29" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H29-(LM!B$17+LM!B$18*H29)*'CP 1'!O$20),2),", ",ROUND(H29+(LM!B$17+LM!B$18*H29)*'CP 1'!O$20,2),"]")</f>
+      <c r="J29" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H29-(LM!B$17+LM!B$18*H29)*'CP 1. part'!P$20),2),", ",ROUND(H29+(LM!B$17+LM!B$18*H29)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 10.24]</v>
       </c>
       <c r="K29" s="29">
@@ -7916,11 +8404,11 @@
         <v>1</v>
       </c>
       <c r="T29">
-        <f>ROUND(MAX(0,H29-(LM!B$17+LM!B$18*H29)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H29-(LM!B$17+LM!B$18*H29)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>ROUND(H29+(LM!B$17+LM!B$18*H29)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H29+(LM!B$17+LM!B$18*H29)*'CP 1. part'!P$20,2)</f>
         <v>10.24</v>
       </c>
     </row>
@@ -7943,12 +8431,12 @@
       <c r="H30" s="1">
         <v>0.5</v>
       </c>
-      <c r="I30" s="50">
-        <f>(LM!B$17+LM!B$18*H30)*'CP 1'!O$20</f>
+      <c r="I30" s="48">
+        <f>(LM!B$17+LM!B$18*H30)*'CP 1. part'!P$20</f>
         <v>2.9235046917032785</v>
       </c>
-      <c r="J30" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H30-(LM!B$17+LM!B$18*H30)*'CP 1'!O$20),2),", ",ROUND(H30+(LM!B$17+LM!B$18*H30)*'CP 1'!O$20,2),"]")</f>
+      <c r="J30" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H30-(LM!B$17+LM!B$18*H30)*'CP 1. part'!P$20),2),", ",ROUND(H30+(LM!B$17+LM!B$18*H30)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 3.42]</v>
       </c>
       <c r="K30" s="29">
@@ -7956,11 +8444,11 @@
         <v>1</v>
       </c>
       <c r="T30">
-        <f>ROUND(MAX(0,H30-(LM!B$17+LM!B$18*H30)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H30-(LM!B$17+LM!B$18*H30)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U30">
-        <f>ROUND(H30+(LM!B$17+LM!B$18*H30)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H30+(LM!B$17+LM!B$18*H30)*'CP 1. part'!P$20,2)</f>
         <v>3.42</v>
       </c>
     </row>
@@ -7983,12 +8471,12 @@
       <c r="H31" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I31" s="50">
-        <f>(LM!B$17+LM!B$18*H31)*'CP 1'!O$20</f>
+      <c r="I31" s="48">
+        <f>(LM!B$17+LM!B$18*H31)*'CP 1. part'!P$20</f>
         <v>2.7492303320673708</v>
       </c>
-      <c r="J31" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H31-(LM!B$17+LM!B$18*H31)*'CP 1'!O$20),2),", ",ROUND(H31+(LM!B$17+LM!B$18*H31)*'CP 1'!O$20,2),"]")</f>
+      <c r="J31" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H31-(LM!B$17+LM!B$18*H31)*'CP 1. part'!P$20),2),", ",ROUND(H31+(LM!B$17+LM!B$18*H31)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 2.89]</v>
       </c>
       <c r="K31" s="29">
@@ -7996,11 +8484,11 @@
         <v>1</v>
       </c>
       <c r="T31">
-        <f>ROUND(MAX(0,H31-(LM!B$17+LM!B$18*H31)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H31-(LM!B$17+LM!B$18*H31)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>ROUND(H31+(LM!B$17+LM!B$18*H31)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H31+(LM!B$17+LM!B$18*H31)*'CP 1. part'!P$20,2)</f>
         <v>2.89</v>
       </c>
     </row>
@@ -8023,12 +8511,12 @@
       <c r="H32" s="1">
         <v>3.27</v>
       </c>
-      <c r="I32" s="50">
-        <f>(LM!B$17+LM!B$18*H32)*'CP 1'!O$20</f>
+      <c r="I32" s="48">
+        <f>(LM!B$17+LM!B$18*H32)*'CP 1. part'!P$20</f>
         <v>4.2644490700129003</v>
       </c>
-      <c r="J32" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H32-(LM!B$17+LM!B$18*H32)*'CP 1'!O$20),2),", ",ROUND(H32+(LM!B$17+LM!B$18*H32)*'CP 1'!O$20,2),"]")</f>
+      <c r="J32" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H32-(LM!B$17+LM!B$18*H32)*'CP 1. part'!P$20),2),", ",ROUND(H32+(LM!B$17+LM!B$18*H32)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 7.53]</v>
       </c>
       <c r="K32" s="29">
@@ -8036,11 +8524,11 @@
         <v>1</v>
       </c>
       <c r="T32">
-        <f>ROUND(MAX(0,H32-(LM!B$17+LM!B$18*H32)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H32-(LM!B$17+LM!B$18*H32)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U32">
-        <f>ROUND(H32+(LM!B$17+LM!B$18*H32)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H32+(LM!B$17+LM!B$18*H32)*'CP 1. part'!P$20,2)</f>
         <v>7.53</v>
       </c>
     </row>
@@ -8063,12 +8551,12 @@
       <c r="H33" s="1">
         <v>0.87</v>
       </c>
-      <c r="I33" s="50">
-        <f>(LM!B$17+LM!B$18*H33)*'CP 1'!O$20</f>
+      <c r="I33" s="48">
+        <f>(LM!B$17+LM!B$18*H33)*'CP 1. part'!P$20</f>
         <v>3.1026200057735167</v>
       </c>
-      <c r="J33" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H33-(LM!B$17+LM!B$18*H33)*'CP 1'!O$20),2),", ",ROUND(H33+(LM!B$17+LM!B$18*H33)*'CP 1'!O$20,2),"]")</f>
+      <c r="J33" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H33-(LM!B$17+LM!B$18*H33)*'CP 1. part'!P$20),2),", ",ROUND(H33+(LM!B$17+LM!B$18*H33)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 3.97]</v>
       </c>
       <c r="K33" s="29">
@@ -8076,11 +8564,11 @@
         <v>1</v>
       </c>
       <c r="T33">
-        <f>ROUND(MAX(0,H33-(LM!B$17+LM!B$18*H33)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H33-(LM!B$17+LM!B$18*H33)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U33">
-        <f>ROUND(H33+(LM!B$17+LM!B$18*H33)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H33+(LM!B$17+LM!B$18*H33)*'CP 1. part'!P$20,2)</f>
         <v>3.97</v>
       </c>
     </row>
@@ -8103,12 +8591,12 @@
       <c r="H34" s="1">
         <v>5.36</v>
       </c>
-      <c r="I34" s="50">
-        <f>(LM!B$17+LM!B$18*H34)*'CP 1'!O$20</f>
+      <c r="I34" s="48">
+        <f>(LM!B$17+LM!B$18*H34)*'CP 1. part'!P$20</f>
         <v>5.2762085467880304</v>
       </c>
-      <c r="J34" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H34-(LM!B$17+LM!B$18*H34)*'CP 1'!O$20),2),", ",ROUND(H34+(LM!B$17+LM!B$18*H34)*'CP 1'!O$20,2),"]")</f>
+      <c r="J34" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H34-(LM!B$17+LM!B$18*H34)*'CP 1. part'!P$20),2),", ",ROUND(H34+(LM!B$17+LM!B$18*H34)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0.08, 10.64]</v>
       </c>
       <c r="K34" s="29">
@@ -8116,11 +8604,11 @@
         <v>1</v>
       </c>
       <c r="T34">
-        <f>ROUND(MAX(0,H34-(LM!B$17+LM!B$18*H34)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H34-(LM!B$17+LM!B$18*H34)*'CP 1. part'!P$20),2)</f>
         <v>0.08</v>
       </c>
       <c r="U34">
-        <f>ROUND(H34+(LM!B$17+LM!B$18*H34)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H34+(LM!B$17+LM!B$18*H34)*'CP 1. part'!P$20,2)</f>
         <v>10.64</v>
       </c>
     </row>
@@ -8143,12 +8631,12 @@
       <c r="H35" s="1">
         <v>0.64</v>
       </c>
-      <c r="I35" s="50">
-        <f>(LM!B$17+LM!B$18*H35)*'CP 1'!O$20</f>
+      <c r="I35" s="48">
+        <f>(LM!B$17+LM!B$18*H35)*'CP 1. part'!P$20</f>
         <v>2.9912780537839092</v>
       </c>
-      <c r="J35" s="37" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H35-(LM!B$17+LM!B$18*H35)*'CP 1'!O$20),2),", ",ROUND(H35+(LM!B$17+LM!B$18*H35)*'CP 1'!O$20,2),"]")</f>
+      <c r="J35" s="35" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H35-(LM!B$17+LM!B$18*H35)*'CP 1. part'!P$20),2),", ",ROUND(H35+(LM!B$17+LM!B$18*H35)*'CP 1. part'!P$20,2),"]")</f>
         <v>[0, 3.63]</v>
       </c>
       <c r="K35" s="29">
@@ -8156,11 +8644,11 @@
         <v>1</v>
       </c>
       <c r="T35">
-        <f>ROUND(MAX(0,H35-(LM!B$17+LM!B$18*H35)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H35-(LM!B$17+LM!B$18*H35)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
       </c>
       <c r="U35">
-        <f>ROUND(H35+(LM!B$17+LM!B$18*H35)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H35+(LM!B$17+LM!B$18*H35)*'CP 1. part'!P$20,2)</f>
         <v>3.63</v>
       </c>
     </row>
@@ -8168,27 +8656,27 @@
       <c r="C36" s="30">
         <v>5031</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>238</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="33">
         <v>855</v>
       </c>
       <c r="F36" s="31">
         <v>429</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="33">
         <v>6.73</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="33">
         <v>12.6</v>
       </c>
-      <c r="I36" s="51">
-        <f>(LM!B$17+LM!B$18*H36)*'CP 1'!O$20</f>
+      <c r="I36" s="49">
+        <f>(LM!B$17+LM!B$18*H36)*'CP 1. part'!P$20</f>
         <v>8.7810595572435055</v>
       </c>
-      <c r="J36" s="38" t="str">
-        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H36-(LM!B$17+LM!B$18*H36)*'CP 1'!O$20),2),", ",ROUND(H36+(LM!B$17+LM!B$18*H36)*'CP 1'!O$20,2),"]")</f>
+      <c r="J36" s="36" t="str">
+        <f>_xlfn.CONCAT("[",ROUND(MAX(0,H36-(LM!B$17+LM!B$18*H36)*'CP 1. part'!P$20),2),", ",ROUND(H36+(LM!B$17+LM!B$18*H36)*'CP 1. part'!P$20,2),"]")</f>
         <v>[3.82, 21.38]</v>
       </c>
       <c r="K36" s="31">
@@ -8196,15 +8684,18 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <f>ROUND(MAX(0,H36-(LM!B$17+LM!B$18*H36)*'CP 1'!O$20),2)</f>
+        <f>ROUND(MAX(0,H36-(LM!B$17+LM!B$18*H36)*'CP 1. part'!P$20),2)</f>
         <v>3.82</v>
       </c>
       <c r="U36">
-        <f>ROUND(H36+(LM!B$17+LM!B$18*H36)*'CP 1'!O$20,2)</f>
+        <f>ROUND(H36+(LM!B$17+LM!B$18*H36)*'CP 1. part'!P$20,2)</f>
         <v>21.38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M7:P20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8215,26 +8706,26 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="47"/>
+      <c r="A3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0.65764259723193508</v>
@@ -8242,7 +8733,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0.43249378569396524</v>
@@ -8250,7 +8741,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0.39195762752924851</v>
@@ -8258,46 +8749,46 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>2.1672033489715998</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="45">
+      <c r="A8" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="43">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -8317,7 +8808,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -8330,50 +8821,50 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="45">
+      <c r="A14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="43">
         <v>15</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="43">
         <v>115.86619375000001</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="46" t="s">
+      <c r="H16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="I16" s="44" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>1.8621228958241252</v>
@@ -8401,31 +8892,31 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="45">
+      <c r="A18" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="43">
         <v>0.33617739127296986</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="43">
         <v>0.10292001950172566</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="43">
         <v>3.2663945547283264</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="43">
         <v>5.6261683427865673E-3</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="43">
         <v>0.11543590352542785</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="43">
         <v>0.55691887902051185</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="43">
         <v>0.11543590352542785</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="43">
         <v>0.55691887902051185</v>
       </c>
     </row>
@@ -8459,27 +8950,27 @@
   <sheetData>
     <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="80" t="s">
+      <c r="C5" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="81" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="107" t="s">
-        <v>78</v>
+      <c r="F5" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="105" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="73">
+      <c r="C6" s="71">
         <v>1</v>
       </c>
       <c r="D6" s="1">
@@ -8491,15 +8982,15 @@
       <c r="F6" s="1">
         <v>367</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="72">
         <v>8.4499999999999993</v>
       </c>
-      <c r="N6" s="107" t="s">
-        <v>77</v>
+      <c r="N6" s="105" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="73">
+      <c r="C7" s="71">
         <v>2</v>
       </c>
       <c r="D7" s="1">
@@ -8511,15 +9002,15 @@
       <c r="F7" s="1">
         <v>785</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="72">
         <v>9.25</v>
       </c>
-      <c r="N7" s="107" t="s">
-        <v>79</v>
+      <c r="N7" s="105" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="73">
+      <c r="C8" s="71">
         <v>3</v>
       </c>
       <c r="D8" s="1">
@@ -8531,15 +9022,15 @@
       <c r="F8" s="1">
         <v>150</v>
       </c>
-      <c r="G8" s="74">
-        <v>0</v>
-      </c>
-      <c r="N8" s="107" t="s">
-        <v>80</v>
+      <c r="G8" s="72">
+        <v>0</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="73">
+      <c r="C9" s="71">
         <v>4</v>
       </c>
       <c r="D9" s="1">
@@ -8551,15 +9042,15 @@
       <c r="F9" s="1">
         <v>747</v>
       </c>
-      <c r="G9" s="74">
-        <v>0</v>
-      </c>
-      <c r="N9" s="107" t="s">
-        <v>93</v>
+      <c r="G9" s="72">
+        <v>0</v>
+      </c>
+      <c r="N9" s="105" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="73">
+      <c r="C10" s="71">
         <v>5</v>
       </c>
       <c r="D10" s="1">
@@ -8571,12 +9062,12 @@
       <c r="F10" s="1">
         <v>305</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="72">
         <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="73">
+      <c r="C11" s="71">
         <v>6</v>
       </c>
       <c r="D11" s="1">
@@ -8588,12 +9079,12 @@
       <c r="F11" s="1">
         <v>770</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="72">
         <v>3.65</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="73">
+      <c r="C12" s="71">
         <v>7</v>
       </c>
       <c r="D12" s="1">
@@ -8605,12 +9096,12 @@
       <c r="F12" s="1">
         <v>175</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="72">
         <v>18.940000000000001</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="73">
+      <c r="C13" s="71">
         <v>8</v>
       </c>
       <c r="D13" s="1">
@@ -8622,16 +9113,16 @@
       <c r="F13" s="1">
         <v>247</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="72">
         <v>4.83</v>
       </c>
-      <c r="K13" s="139" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="140"/>
+      <c r="K13" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="138"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="73">
+      <c r="C14" s="71">
         <v>9</v>
       </c>
       <c r="D14" s="1">
@@ -8643,14 +9134,14 @@
       <c r="F14" s="1">
         <v>110</v>
       </c>
-      <c r="G14" s="74">
-        <v>0</v>
-      </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="142"/>
+      <c r="G14" s="72">
+        <v>0</v>
+      </c>
+      <c r="K14" s="139"/>
+      <c r="L14" s="140"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="73">
+      <c r="C15" s="71">
         <v>10</v>
       </c>
       <c r="D15" s="1">
@@ -8662,14 +9153,14 @@
       <c r="F15" s="1">
         <v>222</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="72">
         <v>28.8</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="142"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="140"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="73">
+      <c r="C16" s="71">
         <v>11</v>
       </c>
       <c r="D16" s="1">
@@ -8681,14 +9172,14 @@
       <c r="F16" s="1">
         <v>450</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="72">
         <v>5.65</v>
       </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="142"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="140"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C17" s="73">
+      <c r="C17" s="71">
         <v>12</v>
       </c>
       <c r="D17" s="1">
@@ -8700,14 +9191,14 @@
       <c r="F17" s="1">
         <v>348</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="72">
         <v>0.05</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="142"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="140"/>
     </row>
     <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="73">
+      <c r="C18" s="71">
         <v>13</v>
       </c>
       <c r="D18" s="1">
@@ -8719,14 +9210,14 @@
       <c r="F18" s="1">
         <v>418</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="72">
         <v>3.27</v>
       </c>
-      <c r="K18" s="143"/>
-      <c r="L18" s="144"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="142"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="73">
+      <c r="C19" s="71">
         <v>14</v>
       </c>
       <c r="D19" s="1">
@@ -8738,7 +9229,7 @@
       <c r="F19" s="1">
         <v>401</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="72">
         <v>3.54</v>
       </c>
       <c r="I19" s="1"/>
@@ -8747,7 +9238,7 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="73">
+      <c r="C20" s="71">
         <v>15</v>
       </c>
       <c r="D20" s="1">
@@ -8759,7 +9250,7 @@
       <c r="F20" s="1">
         <v>616</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="72">
         <v>10.57</v>
       </c>
       <c r="I20" s="1"/>
@@ -8770,19 +9261,19 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="75">
+      <c r="C21" s="73">
         <v>16</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="74">
         <v>817</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="74">
         <v>429</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="74">
         <v>366</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="75">
         <v>6.67</v>
       </c>
       <c r="N21" s="25" t="s">
@@ -8791,51 +9282,51 @@
       <c r="O21" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="P21" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="S21" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="T21" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="U21" s="103" t="s">
-        <v>74</v>
+      <c r="P21" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="T21" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="101" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="N22" s="26">
         <v>1</v>
       </c>
-      <c r="O22" s="34">
+      <c r="O22" s="32">
         <v>8.4499999999999993</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P22" s="87">
         <v>13.58</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="Q22" s="80">
         <f>IF(O22&gt;P22,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="90">
+      <c r="R22" s="88">
         <f>IF(O22&lt;P22,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S22" s="95">
+      <c r="S22" s="93">
         <v>12.39525118414703</v>
       </c>
-      <c r="T22" s="83">
+      <c r="T22" s="81">
         <f>IF(O22&gt;S22,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U22" s="84">
+      <c r="U22" s="82">
         <f>IF(O22&lt;S22,1,0)</f>
         <v>1</v>
       </c>
@@ -8847,25 +9338,25 @@
       <c r="O23" s="1">
         <v>9.25</v>
       </c>
-      <c r="P23" s="91">
+      <c r="P23" s="89">
         <v>17.13</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q23" s="64">
         <f t="shared" ref="Q23:Q37" si="0">IF(O23&gt;P23,1,0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="92">
+      <c r="R23" s="90">
         <f t="shared" ref="R23:R37" si="1">IF(O23&lt;P23,1,0)</f>
         <v>1</v>
       </c>
-      <c r="S23" s="96">
+      <c r="S23" s="94">
         <v>15.229811147759975</v>
       </c>
-      <c r="T23" s="69">
+      <c r="T23" s="67">
         <f t="shared" ref="T23:T37" si="2">IF(O23&gt;S23,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="85">
+      <c r="U23" s="83">
         <f t="shared" ref="U23:U37" si="3">IF(O23&lt;S23,1,0)</f>
         <v>1</v>
       </c>
@@ -8877,50 +9368,50 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="91">
+      <c r="P24" s="89">
         <v>1.62</v>
       </c>
-      <c r="Q24" s="66">
+      <c r="Q24" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24" s="92">
+      <c r="R24" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S24" s="96">
+      <c r="S24" s="94">
         <v>0.28222432409914733</v>
       </c>
-      <c r="T24" s="69">
+      <c r="T24" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="85">
+      <c r="U24" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="62" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>64</v>
       </c>
       <c r="N25" s="28">
         <v>4</v>
@@ -8928,50 +9419,50 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="91">
+      <c r="P25" s="89">
         <v>1E-3</v>
       </c>
-      <c r="Q25" s="66">
+      <c r="Q25" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="92">
+      <c r="R25" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S25" s="96">
+      <c r="S25" s="94">
         <v>0.39</v>
       </c>
-      <c r="T25" s="69">
+      <c r="T25" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="85">
+      <c r="U25" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="65">
-        <v>1</v>
-      </c>
-      <c r="C26" s="65">
-        <v>1</v>
-      </c>
-      <c r="D26" s="66">
-        <v>1</v>
-      </c>
-      <c r="E26" s="66">
-        <v>1</v>
-      </c>
-      <c r="F26" s="66">
+      <c r="B26" s="63">
+        <v>1</v>
+      </c>
+      <c r="C26" s="63">
+        <v>1</v>
+      </c>
+      <c r="D26" s="64">
+        <v>1</v>
+      </c>
+      <c r="E26" s="64">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
         <v>0.5</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="65">
         <f>Q39</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="69">
         <f>R39</f>
         <v>0.82499999999999996</v>
       </c>
@@ -8981,50 +9472,50 @@
       <c r="O26" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="P26" s="91">
+      <c r="P26" s="89">
         <v>10.47</v>
       </c>
-      <c r="Q26" s="66">
+      <c r="Q26" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="92">
+      <c r="R26" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S26" s="96">
+      <c r="S26" s="94">
         <v>9.9083421365187547</v>
       </c>
-      <c r="T26" s="69">
+      <c r="T26" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="85">
+      <c r="U26" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="68">
+      <c r="B27" s="66">
         <v>2</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="66">
         <v>2</v>
       </c>
-      <c r="D27" s="69">
-        <v>1</v>
-      </c>
-      <c r="E27" s="69">
-        <v>1</v>
-      </c>
-      <c r="F27" s="69">
+      <c r="D27" s="67">
+        <v>1</v>
+      </c>
+      <c r="E27" s="67">
+        <v>1</v>
+      </c>
+      <c r="F27" s="67">
         <v>0.5</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="68">
         <f>T39</f>
         <v>0.13750000000000001</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="70">
         <f>U39</f>
         <v>0.76249999999999996</v>
       </c>
@@ -9034,34 +9525,34 @@
       <c r="O27" s="1">
         <v>3.65</v>
       </c>
-      <c r="P27" s="91">
+      <c r="P27" s="89">
         <v>9.39</v>
       </c>
-      <c r="Q27" s="66">
+      <c r="Q27" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="92">
+      <c r="R27" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S27" s="96">
+      <c r="S27" s="94">
         <v>8.4996631003521088</v>
       </c>
-      <c r="T27" s="69">
+      <c r="T27" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="85">
+      <c r="U27" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="56">
+      <c r="B28" s="54">
         <v>3</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="54">
         <v>3</v>
       </c>
       <c r="D28">
@@ -9073,12 +9564,12 @@
       <c r="F28">
         <v>0.5</v>
       </c>
-      <c r="G28" s="105">
+      <c r="G28" s="103">
         <v>1.2E-4</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="59">
         <f t="shared" ref="G28:H29" ca="1" si="4">RAND()</f>
-        <v>0.64376583947533084</v>
+        <v>0.61698554823039142</v>
       </c>
       <c r="N28" s="28">
         <v>7</v>
@@ -9086,34 +9577,34 @@
       <c r="O28" s="1">
         <v>18.940000000000001</v>
       </c>
-      <c r="P28" s="91">
+      <c r="P28" s="89">
         <v>21.98</v>
       </c>
-      <c r="Q28" s="66">
+      <c r="Q28" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R28" s="92">
+      <c r="R28" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S28" s="96">
+      <c r="S28" s="94">
         <v>5.2</v>
       </c>
-      <c r="T28" s="69">
+      <c r="T28" s="67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U28" s="85">
+      <c r="U28" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="56">
+      <c r="B29" s="54">
         <v>4</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="54">
         <v>4</v>
       </c>
       <c r="D29">
@@ -9125,11 +9616,11 @@
       <c r="F29">
         <v>0.5</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9848294406228969</v>
-      </c>
-      <c r="H29" s="104">
+        <v>0.73405916343569688</v>
+      </c>
+      <c r="H29" s="102">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="N29" s="28">
@@ -9138,50 +9629,50 @@
       <c r="O29" s="1">
         <v>4.83</v>
       </c>
-      <c r="P29" s="91">
+      <c r="P29" s="89">
         <v>2.0299999999999998</v>
       </c>
-      <c r="Q29" s="66">
+      <c r="Q29" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R29" s="92">
+      <c r="R29" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S29" s="96">
+      <c r="S29" s="94">
         <v>0.24745591346743834</v>
       </c>
-      <c r="T29" s="69">
+      <c r="T29" s="67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U29" s="85">
+      <c r="U29" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>22</v>
+      <c r="B30" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="N30" s="28">
         <v>9</v>
@@ -9189,50 +9680,50 @@
       <c r="O30" s="1">
         <v>0</v>
       </c>
-      <c r="P30" s="91">
+      <c r="P30" s="89">
         <v>0.06</v>
       </c>
-      <c r="Q30" s="66">
+      <c r="Q30" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R30" s="92">
+      <c r="R30" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S30" s="96">
+      <c r="S30" s="94">
         <v>1.25</v>
       </c>
-      <c r="T30" s="69">
+      <c r="T30" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="85">
+      <c r="U30" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>22</v>
+      <c r="B31" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="N31" s="28">
         <v>10</v>
@@ -9240,50 +9731,50 @@
       <c r="O31" s="1">
         <v>28.8</v>
       </c>
-      <c r="P31" s="91">
+      <c r="P31" s="89">
         <v>39.229999999999997</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R31" s="92">
+      <c r="R31" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S31" s="96">
+      <c r="S31" s="94">
         <v>37.814541030977772</v>
       </c>
-      <c r="T31" s="69">
+      <c r="T31" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31" s="85">
+      <c r="U31" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>22</v>
+      <c r="B32" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="N32" s="28">
         <v>11</v>
@@ -9291,50 +9782,50 @@
       <c r="O32" s="1">
         <v>5.65</v>
       </c>
-      <c r="P32" s="91">
+      <c r="P32" s="89">
         <v>10.87</v>
       </c>
-      <c r="Q32" s="66">
+      <c r="Q32" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R32" s="92">
+      <c r="R32" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S32" s="96">
+      <c r="S32" s="94">
         <v>9.0037132854272635</v>
       </c>
-      <c r="T32" s="69">
+      <c r="T32" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32" s="85">
+      <c r="U32" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>22</v>
+      <c r="B33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="N33" s="28">
         <v>12</v>
@@ -9342,25 +9833,25 @@
       <c r="O33" s="1">
         <v>0.05</v>
       </c>
-      <c r="P33" s="91">
+      <c r="P33" s="89">
         <v>1.38</v>
       </c>
-      <c r="Q33" s="66">
+      <c r="Q33" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R33" s="92">
+      <c r="R33" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S33" s="96">
+      <c r="S33" s="94">
         <v>1.0667146909685163</v>
       </c>
-      <c r="T33" s="69">
+      <c r="T33" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U33" s="85">
+      <c r="U33" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -9372,38 +9863,38 @@
       <c r="O34" s="1">
         <v>3.27</v>
       </c>
-      <c r="P34" s="91">
+      <c r="P34" s="89">
         <v>6.67</v>
       </c>
-      <c r="Q34" s="66">
+      <c r="Q34" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R34" s="92">
+      <c r="R34" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S34" s="96">
+      <c r="S34" s="94">
         <v>5.6999695930900511</v>
       </c>
-      <c r="T34" s="69">
+      <c r="T34" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U34" s="85">
+      <c r="U34" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="54">
+        <v>66</v>
+      </c>
+      <c r="G35" s="52">
         <f ca="1">MIN(G26:G29)</f>
         <v>1.2E-4</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="52">
         <f ca="1">MIN(H26:H29)</f>
         <v>4.2099999999999999E-2</v>
       </c>
@@ -9413,25 +9904,25 @@
       <c r="O35" s="1">
         <v>3.54</v>
       </c>
-      <c r="P35" s="91">
+      <c r="P35" s="89">
         <v>5.68</v>
       </c>
-      <c r="Q35" s="66">
+      <c r="Q35" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R35" s="92">
+      <c r="R35" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S35" s="96">
+      <c r="S35" s="94">
         <v>4.2652627988882044</v>
       </c>
-      <c r="T35" s="69">
+      <c r="T35" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U35" s="85">
+      <c r="U35" s="83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -9443,142 +9934,142 @@
       <c r="O36" s="1">
         <v>10.57</v>
       </c>
-      <c r="P36" s="91">
+      <c r="P36" s="89">
         <v>9.84</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="Q36" s="64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R36" s="92">
+      <c r="R36" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S36" s="96">
+      <c r="S36" s="94">
         <v>8.4226939674832675</v>
       </c>
-      <c r="T36" s="69">
+      <c r="T36" s="67">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U36" s="85">
+      <c r="U36" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="78" t="s">
-        <v>75</v>
+      <c r="B37" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="N37" s="30">
         <v>16</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O37" s="33">
         <v>6.67</v>
       </c>
-      <c r="P37" s="93">
+      <c r="P37" s="91">
         <v>7.2</v>
       </c>
-      <c r="Q37" s="86">
+      <c r="Q37" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R37" s="94">
+      <c r="R37" s="92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S37" s="97">
+      <c r="S37" s="95">
         <v>7.1986787394817275</v>
       </c>
-      <c r="T37" s="87">
+      <c r="T37" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U37" s="88">
+      <c r="U37" s="86">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="106" t="s">
-        <v>76</v>
+      <c r="B38" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="104" t="s">
+        <v>71</v>
       </c>
       <c r="P38" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q38" s="66">
+        <v>64</v>
+      </c>
+      <c r="Q38" s="64">
         <f>AVERAGE(Q22:Q37)</f>
         <v>0.125</v>
       </c>
-      <c r="R38" s="66">
+      <c r="R38" s="64">
         <f>AVERAGE(R22:R37)</f>
         <v>0.875</v>
       </c>
-      <c r="T38" s="69">
+      <c r="T38" s="67">
         <f>AVERAGE(T22:T37)</f>
         <v>0.1875</v>
       </c>
-      <c r="U38" s="69">
+      <c r="U38" s="67">
         <f>AVERAGE(U22:U37)</f>
         <v>0.8125</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q39" s="66">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="64">
         <f>Q38-0.05</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R39" s="66">
+      <c r="R39" s="64">
         <f>R38-0.05</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="T39" s="69">
+      <c r="T39" s="67">
         <f>T38-0.05</f>
         <v>0.13750000000000001</v>
       </c>
-      <c r="U39" s="69">
+      <c r="U39" s="67">
         <f>U38-0.05</f>
         <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="K41" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="L41" s="119" t="s">
-        <v>88</v>
+      <c r="K41" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" s="117" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="L42" s="107" t="s">
-        <v>89</v>
+      <c r="L42" s="105" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L43" s="43" t="s">
-        <v>90</v>
+      <c r="L43" s="41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -9594,7 +10085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5C9D6-2333-41E8-97C6-9FADE584365B}">
   <dimension ref="C4:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -9608,62 +10099,62 @@
   <sheetData>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="114" t="s">
-        <v>75</v>
+      <c r="C5" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="112" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="147" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="115" t="s">
-        <v>76</v>
+      <c r="C6" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="113" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="80" t="s">
+      <c r="C8" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="80" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="81" t="s">
-        <v>66</v>
+      <c r="F8" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="109">
+      <c r="C9" s="107">
         <v>5000</v>
       </c>
       <c r="D9" s="1">
@@ -9672,32 +10163,32 @@
       <c r="E9" s="1">
         <v>297</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="72">
         <v>367</v>
       </c>
-      <c r="M9" s="109">
+      <c r="M9" s="107">
         <v>5000</v>
       </c>
       <c r="N9" s="1">
         <v>13.58</v>
       </c>
-      <c r="O9" s="117">
+      <c r="O9" s="115">
         <v>8</v>
       </c>
       <c r="P9" s="1">
         <f>IF(O9&lt;=N9,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="112">
+      <c r="Q9" s="110">
         <v>14</v>
       </c>
-      <c r="R9" s="74">
+      <c r="R9" s="72">
         <f>IF(Q9&gt;=N9,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="109">
+      <c r="C10" s="107">
         <v>5001</v>
       </c>
       <c r="D10" s="1">
@@ -9706,35 +10197,35 @@
       <c r="E10" s="1">
         <v>638</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="72">
         <v>785</v>
       </c>
-      <c r="M10" s="109">
+      <c r="M10" s="107">
         <v>5001</v>
       </c>
       <c r="N10" s="1">
         <v>17.13</v>
       </c>
-      <c r="O10" s="117">
+      <c r="O10" s="115">
         <v>10</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" ref="P10:P24" si="0">IF(O10&lt;=N10,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="112">
+      <c r="Q10" s="110">
         <v>18</v>
       </c>
-      <c r="R10" s="74">
+      <c r="R10" s="72">
         <f t="shared" ref="R10:R24" si="1">IF(Q10&gt;=N10,1,0)</f>
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="109">
+      <c r="C11" s="107">
         <v>5002</v>
       </c>
       <c r="D11" s="1">
@@ -9743,32 +10234,32 @@
       <c r="E11" s="1">
         <v>241</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="72">
         <v>150</v>
       </c>
-      <c r="M11" s="109">
+      <c r="M11" s="107">
         <v>5002</v>
       </c>
       <c r="N11" s="1">
         <v>1.62</v>
       </c>
-      <c r="O11" s="117">
+      <c r="O11" s="115">
         <v>0.01</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="112">
+      <c r="Q11" s="110">
         <v>2</v>
       </c>
-      <c r="R11" s="74">
+      <c r="R11" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C12" s="109">
+      <c r="C12" s="107">
         <v>5003</v>
       </c>
       <c r="D12" s="1">
@@ -9777,37 +10268,37 @@
       <c r="E12" s="1">
         <v>310</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="72">
         <v>747</v>
       </c>
-      <c r="I12" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="M12" s="109">
+      <c r="I12" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
+      <c r="M12" s="107">
         <v>5003</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="117">
+      <c r="O12" s="115">
         <v>0.01</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="112">
+      <c r="Q12" s="110">
         <v>3</v>
       </c>
-      <c r="R12" s="74">
+      <c r="R12" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C13" s="109">
+      <c r="C13" s="107">
         <v>5004</v>
       </c>
       <c r="D13" s="1">
@@ -9816,35 +10307,35 @@
       <c r="E13" s="1">
         <v>763</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="72">
         <v>305</v>
       </c>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="154"/>
-      <c r="M13" s="109">
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="M13" s="107">
         <v>5004</v>
       </c>
       <c r="N13" s="1">
         <v>10.47</v>
       </c>
-      <c r="O13" s="117">
+      <c r="O13" s="115">
         <v>10</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="112">
+      <c r="Q13" s="110">
         <v>15</v>
       </c>
-      <c r="R13" s="74">
+      <c r="R13" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C14" s="109">
+      <c r="C14" s="107">
         <v>5005</v>
       </c>
       <c r="D14" s="1">
@@ -9853,35 +10344,35 @@
       <c r="E14" s="1">
         <v>764</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="72">
         <v>770</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
-      <c r="M14" s="109">
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="M14" s="107">
         <v>5005</v>
       </c>
       <c r="N14" s="1">
         <v>9.39</v>
       </c>
-      <c r="O14" s="117">
+      <c r="O14" s="115">
         <v>9</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="112">
+      <c r="Q14" s="110">
         <v>20</v>
       </c>
-      <c r="R14" s="74">
+      <c r="R14" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C15" s="109">
+      <c r="C15" s="107">
         <v>5006</v>
       </c>
       <c r="D15" s="1">
@@ -9890,35 +10381,35 @@
       <c r="E15" s="1">
         <v>510</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="72">
         <v>175</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
-      <c r="M15" s="109">
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="152"/>
+      <c r="M15" s="107">
         <v>5006</v>
       </c>
       <c r="N15" s="1">
         <v>21.98</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="115">
         <v>14</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="112">
+      <c r="Q15" s="110">
         <v>22</v>
       </c>
-      <c r="R15" s="74">
+      <c r="R15" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="109">
+      <c r="C16" s="107">
         <v>5007</v>
       </c>
       <c r="D16" s="1">
@@ -9927,35 +10418,35 @@
       <c r="E16" s="1">
         <v>615</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="72">
         <v>247</v>
       </c>
-      <c r="I16" s="155"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="157"/>
-      <c r="M16" s="109">
+      <c r="I16" s="153"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="M16" s="107">
         <v>5007</v>
       </c>
       <c r="N16" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O16" s="117">
+      <c r="O16" s="115">
         <v>0.3</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="112">
+      <c r="Q16" s="110">
         <v>3</v>
       </c>
-      <c r="R16" s="74">
+      <c r="R16" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C17" s="109">
+      <c r="C17" s="107">
         <v>5008</v>
       </c>
       <c r="D17" s="1">
@@ -9964,32 +10455,32 @@
       <c r="E17" s="1">
         <v>941</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="72">
         <v>110</v>
       </c>
-      <c r="M17" s="109">
+      <c r="M17" s="107">
         <v>5008</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="117">
+      <c r="O17" s="115">
         <v>0.1</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="112">
+      <c r="Q17" s="110">
         <v>5</v>
       </c>
-      <c r="R17" s="74">
+      <c r="R17" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C18" s="109">
+      <c r="C18" s="107">
         <v>5009</v>
       </c>
       <c r="D18" s="1">
@@ -9998,32 +10489,32 @@
       <c r="E18" s="1">
         <v>293</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="72">
         <v>222</v>
       </c>
-      <c r="M18" s="109">
+      <c r="M18" s="107">
         <v>5009</v>
       </c>
       <c r="N18" s="1">
         <v>39.229999999999997</v>
       </c>
-      <c r="O18" s="117">
+      <c r="O18" s="115">
         <v>30</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="112">
+      <c r="Q18" s="110">
         <v>25</v>
       </c>
-      <c r="R18" s="74">
+      <c r="R18" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C19" s="109">
+      <c r="C19" s="107">
         <v>5010</v>
       </c>
       <c r="D19" s="1">
@@ -10032,32 +10523,32 @@
       <c r="E19" s="1">
         <v>744</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="72">
         <v>450</v>
       </c>
-      <c r="M19" s="109">
+      <c r="M19" s="107">
         <v>5010</v>
       </c>
       <c r="N19" s="1">
         <v>10.87</v>
       </c>
-      <c r="O19" s="117">
+      <c r="O19" s="115">
         <v>10</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="112">
+      <c r="Q19" s="110">
         <v>15</v>
       </c>
-      <c r="R19" s="74">
+      <c r="R19" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C20" s="109">
+      <c r="C20" s="107">
         <v>5011</v>
       </c>
       <c r="D20" s="1">
@@ -10066,32 +10557,32 @@
       <c r="E20" s="1">
         <v>533</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="72">
         <v>348</v>
       </c>
-      <c r="M20" s="109">
+      <c r="M20" s="107">
         <v>5011</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
-      <c r="O20" s="117">
+      <c r="O20" s="115">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="112">
+      <c r="Q20" s="110">
         <v>19</v>
       </c>
-      <c r="R20" s="74">
+      <c r="R20" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C21" s="109">
+      <c r="C21" s="107">
         <v>5012</v>
       </c>
       <c r="D21" s="1">
@@ -10100,32 +10591,32 @@
       <c r="E21" s="1">
         <v>900</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="72">
         <v>418</v>
       </c>
-      <c r="M21" s="109">
+      <c r="M21" s="107">
         <v>5012</v>
       </c>
       <c r="N21" s="1">
         <v>6.67</v>
       </c>
-      <c r="O21" s="117">
+      <c r="O21" s="115">
         <v>3</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="112">
+      <c r="Q21" s="110">
         <v>7</v>
       </c>
-      <c r="R21" s="74">
+      <c r="R21" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C22" s="109">
+      <c r="C22" s="107">
         <v>5013</v>
       </c>
       <c r="D22" s="1">
@@ -10134,32 +10625,32 @@
       <c r="E22" s="1">
         <v>895</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="72">
         <v>401</v>
       </c>
-      <c r="M22" s="109">
+      <c r="M22" s="107">
         <v>5013</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
-      <c r="O22" s="117">
+      <c r="O22" s="115">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="112">
+      <c r="Q22" s="110">
         <v>5</v>
       </c>
-      <c r="R22" s="74">
+      <c r="R22" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C23" s="109">
+      <c r="C23" s="107">
         <v>5014</v>
       </c>
       <c r="D23" s="1">
@@ -10168,67 +10659,67 @@
       <c r="E23" s="1">
         <v>252</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="72">
         <v>616</v>
       </c>
-      <c r="M23" s="109">
+      <c r="M23" s="107">
         <v>5014</v>
       </c>
       <c r="N23" s="1">
         <v>9.84</v>
       </c>
-      <c r="O23" s="117">
+      <c r="O23" s="115">
         <v>4</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="112">
+      <c r="Q23" s="110">
         <v>23</v>
       </c>
-      <c r="R23" s="74">
+      <c r="R23" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="110">
+      <c r="C24" s="108">
         <v>5015</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="74">
         <v>817</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="74">
         <v>429</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="75">
         <v>366</v>
       </c>
-      <c r="M24" s="110">
+      <c r="M24" s="108">
         <v>5015</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="74">
         <v>7.2</v>
       </c>
-      <c r="O24" s="118">
+      <c r="O24" s="116">
         <v>9</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="113">
+      <c r="Q24" s="111">
         <v>8</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.3">
       <c r="O26" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P26" s="25">
         <f>AVERAGE(P9:P24)</f>
@@ -10242,30 +10733,30 @@
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="O27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="9:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="I33" s="120" t="s">
-        <v>87</v>
+      <c r="I33" s="118" t="s">
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis drafts/Miscellaneous/Approach CP und QR.xlsx
+++ b/Analysis drafts/Miscellaneous/Approach CP und QR.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Studium\Master\Université de Genève\Kurse\Master thesis\Drafts\Analysis drafts\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FA13D-D712-487D-B335-BEB8E335E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75DAEFB-7A5F-4C28-BBBF-9A4765BE0199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8027843B-AE8F-422B-8197-31000C3E0078}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8027843B-AE8F-422B-8197-31000C3E0078}"/>
   </bookViews>
   <sheets>
     <sheet name="CP General" sheetId="1" r:id="rId1"/>
     <sheet name="CP 1. part" sheetId="2" r:id="rId2"/>
-    <sheet name="CP 2" sheetId="3" r:id="rId3"/>
+    <sheet name="CP 2. part" sheetId="3" r:id="rId3"/>
     <sheet name="LM" sheetId="4" r:id="rId4"/>
-    <sheet name="QR 1" sheetId="5" r:id="rId5"/>
-    <sheet name="QR 2" sheetId="6" r:id="rId6"/>
+    <sheet name="QR 1. part" sheetId="5" r:id="rId5"/>
+    <sheet name="QR 2.part" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -277,10 +277,6 @@
     <t>Min</t>
   </si>
   <si>
-    <t>Prediction
-Run 1</t>
-  </si>
-  <si>
     <t>Above
 Run 1</t>
   </si>
@@ -295,34 +291,13 @@
     <t>4, 2, 1, 0.5</t>
   </si>
   <si>
-    <t>2. Make predictions with this combination and get the results</t>
-  </si>
-  <si>
-    <t>1. Provide the model every run with the whole cohort and 1 parameter combination</t>
-  </si>
-  <si>
-    <t>3. Assign the results to their respective parameter combination</t>
-  </si>
-  <si>
-    <t>4. Find the minimum deviation and select this parameter combination to produce e.g.</t>
-  </si>
-  <si>
-    <t>pnbd-model</t>
-  </si>
-  <si>
     <t>CET Upper</t>
   </si>
   <si>
     <t>CET Lower</t>
   </si>
   <si>
-    <t>1. Provide the model with the needed parameter combination to predict e.g. the lower interval boundary</t>
-  </si>
-  <si>
     <t>3. Check the coverage</t>
-  </si>
-  <si>
-    <t>(95% are desired here)</t>
   </si>
   <si>
     <t>Note</t>
@@ -338,9 +313,6 @@
   </si>
   <si>
     <t xml:space="preserve">                 for the lower boundary to avoid misleading results (not shown here)</t>
-  </si>
-  <si>
-    <t>the upper prediction interval boundaries for CET</t>
   </si>
   <si>
     <t>Parameter combination for lower boundary:</t>
@@ -410,6 +382,61 @@
 - add and subtract the result form the respective point prediction
 - check if the resulting interval covers the true value
 - calculate the overall coverage</t>
+  </si>
+  <si>
+    <t>1. Create a grid of n possible parameter combinations</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>2. Go through the grid and provide every run the whole cohort and 1 parameter combination to the model</t>
+  </si>
+  <si>
+    <t>4. Assign the results to their respective parameter combination</t>
+  </si>
+  <si>
+    <t>3. Make predictions with this combination and get the upper and lower coverage</t>
+  </si>
+  <si>
+    <t>6. Select this parameter combination to produce e.g.the upper prediction interval boundaries</t>
+  </si>
+  <si>
+    <t>5. Find the minimum deviation of the results to the desired quantile, e.g. 5% or 95%</t>
+  </si>
+  <si>
+    <t>Above
+Run 2</t>
+  </si>
+  <si>
+    <t>Below
+Run 2</t>
+  </si>
+  <si>
+    <t>Above
+Run 3</t>
+  </si>
+  <si>
+    <t>Below
+Run 3</t>
+  </si>
+  <si>
+    <t>Pred.
+Run 1</t>
+  </si>
+  <si>
+    <t>Pred.
+Run 2</t>
+  </si>
+  <si>
+    <t>Pred.
+Run 3</t>
+  </si>
+  <si>
+    <t>1. Provide the model with the needed parameter combination to predict the lower/upper interval boundary</t>
+  </si>
+  <si>
+    <t>(95% are desired here for both boundaries)</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1147,6 +1174,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,6 +1241,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -1255,35 +1311,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1478,8 +1524,8 @@
       <xdr:rowOff>181610</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2825389" cy="165366"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1572,7 +1618,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1584,7 +1630,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1596,7 +1642,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -1695,7 +1741,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1933,8 +1979,8 @@
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2486706" cy="157992"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2050,7 +2096,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2062,7 +2108,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2078,19 +2124,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝒑</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1000" b="1" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝒓𝒆𝒅</m:t>
+                      <m:t>𝒑𝒓𝒆𝒅</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="de-DE" sz="1000" b="1" i="1">
@@ -2107,7 +2141,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2407,8 +2441,8 @@
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3644011" cy="210507"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2604,7 +2638,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2736,8 +2770,8 @@
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2672270" cy="221214"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2845,7 +2879,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3489,10 +3523,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>462878</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12252</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>582621</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88452</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="422744" cy="468013"/>
     <xdr:sp macro="" textlink="">
@@ -3508,7 +3542,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4407349" y="2074134"/>
+          <a:off x="2041307" y="5008795"/>
           <a:ext cx="422744" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3551,10 +3585,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:rowOff>61687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="422744" cy="468013"/>
     <xdr:sp macro="" textlink="">
@@ -3570,7 +3604,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658412" y="2188883"/>
+          <a:off x="4713514" y="2173516"/>
           <a:ext cx="422744" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3613,10 +3647,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>120649</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108249</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>991507</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10278</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="422744" cy="468013"/>
     <xdr:sp macro="" textlink="">
@@ -3632,7 +3666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6239061" y="4613014"/>
+          <a:off x="10081078" y="2503107"/>
           <a:ext cx="422744" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3675,10 +3709,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>298823</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168195</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90180</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="422744" cy="468013"/>
     <xdr:sp macro="" textlink="">
@@ -3694,7 +3728,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2136588" y="6432176"/>
+          <a:off x="5464095" y="4662180"/>
           <a:ext cx="422744" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3729,6 +3763,130 @@
               </a:solidFill>
             </a:rPr>
             <a:t>4.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1084410</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33937</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="422744" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C1B755-8754-4D69-922A-54EAA1EB4B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262710" y="6409337"/>
+          <a:ext cx="422744" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1048658</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116115</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="422744" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413B254D-BEB9-4B5A-94BC-28653DB9D495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4299858" y="6745515"/>
+          <a:ext cx="422744" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4468,156 +4626,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>54686</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38473</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1905150" cy="436786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC5D7BF-17EE-87CB-A844-CB6CDD988A4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6225392" y="598767"/>
-          <a:ext cx="1905150" cy="436786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Actually unknown but become</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>visible by the time</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600956</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>112543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276411</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB390840-4222-4E18-956D-F44BAAE3A64D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7996838" y="1053837"/>
-          <a:ext cx="288044" cy="260987"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4966,23 +4974,23 @@
       <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="156" t="s">
-        <v>93</v>
+      <c r="H4" s="120" t="s">
+        <v>84</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="120" t="s">
+      <c r="J4" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="146" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2">
@@ -5003,15 +5011,15 @@
       <c r="I5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
     </row>
     <row r="6" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="2">
         <v>2</v>
       </c>
@@ -5030,13 +5038,13 @@
       <c r="I6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
     </row>
     <row r="7" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="129"/>
-      <c r="C7" s="132"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="2">
         <v>3</v>
       </c>
@@ -5055,13 +5063,13 @@
       <c r="I7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="129"/>
-      <c r="C8" s="132"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="2">
         <v>4</v>
       </c>
@@ -5080,13 +5088,13 @@
       <c r="I8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
     </row>
     <row r="9" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
-      <c r="C9" s="132"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="2">
         <v>5</v>
       </c>
@@ -5105,13 +5113,13 @@
       <c r="I9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
     </row>
     <row r="10" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="129"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="2">
         <v>6</v>
       </c>
@@ -5130,13 +5138,13 @@
       <c r="I10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
     </row>
     <row r="11" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="129"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="2">
         <v>7</v>
       </c>
@@ -5155,13 +5163,13 @@
       <c r="I11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
     </row>
     <row r="12" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129"/>
-      <c r="C12" s="132"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="2">
         <v>8</v>
       </c>
@@ -5180,13 +5188,13 @@
       <c r="I12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
     </row>
     <row r="13" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="129"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="2">
         <v>9</v>
       </c>
@@ -5205,13 +5213,13 @@
       <c r="I13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
     </row>
     <row r="14" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="2">
         <v>10</v>
       </c>
@@ -5230,13 +5238,13 @@
       <c r="I14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
     </row>
     <row r="15" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="129"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="2">
         <v>11</v>
       </c>
@@ -5255,13 +5263,13 @@
       <c r="I15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
     </row>
     <row r="16" spans="2:12" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="129"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="2">
         <v>12</v>
       </c>
@@ -5280,13 +5288,13 @@
       <c r="I16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="129"/>
-      <c r="C17" s="133"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="2">
         <v>13</v>
       </c>
@@ -5305,12 +5313,12 @@
       <c r="I17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
     </row>
     <row r="18" spans="2:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="129"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -5325,8 +5333,8 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="129"/>
-      <c r="C19" s="131" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="146" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2">
@@ -5351,14 +5359,14 @@
         <f>ABS(H19-I19)</f>
         <v>1.0699999999999998</v>
       </c>
-      <c r="K19" s="127" t="s">
+      <c r="K19" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="127"/>
+      <c r="L19" s="142"/>
     </row>
     <row r="20" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="129"/>
-      <c r="C20" s="132"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="2">
         <v>15</v>
       </c>
@@ -5381,12 +5389,12 @@
         <f t="shared" ref="J20:J30" si="0">ABS(H20-I20)</f>
         <v>1.5700000000000003</v>
       </c>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
     </row>
     <row r="21" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="129"/>
-      <c r="C21" s="132"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="2">
         <v>16</v>
       </c>
@@ -5409,12 +5417,12 @@
         <f t="shared" si="0"/>
         <v>23.58</v>
       </c>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
     </row>
     <row r="22" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="129"/>
-      <c r="C22" s="132"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="2">
         <v>17</v>
       </c>
@@ -5437,12 +5445,12 @@
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="129"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="2">
         <v>18</v>
       </c>
@@ -5465,12 +5473,12 @@
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="129"/>
-      <c r="C24" s="132"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="147"/>
       <c r="D24" s="2">
         <v>19</v>
       </c>
@@ -5493,12 +5501,12 @@
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
     </row>
     <row r="25" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="129"/>
-      <c r="C25" s="132"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="2">
         <v>20</v>
       </c>
@@ -5521,12 +5529,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
     </row>
     <row r="26" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="129"/>
-      <c r="C26" s="132"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="2">
         <v>21</v>
       </c>
@@ -5549,12 +5557,12 @@
         <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
     </row>
     <row r="27" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="129"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="2">
         <v>22</v>
       </c>
@@ -5577,12 +5585,12 @@
         <f t="shared" si="0"/>
         <v>9.9799999999999986</v>
       </c>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="129"/>
-      <c r="C28" s="132"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="147"/>
       <c r="D28" s="2">
         <v>23</v>
       </c>
@@ -5605,12 +5613,12 @@
         <f t="shared" si="0"/>
         <v>2.3899999999999997</v>
       </c>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
     </row>
     <row r="29" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="129"/>
-      <c r="C29" s="132"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="2">
         <v>24</v>
       </c>
@@ -5633,12 +5641,12 @@
         <f t="shared" si="0"/>
         <v>15.59</v>
       </c>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
     </row>
     <row r="30" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="130"/>
-      <c r="C30" s="133"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="148"/>
       <c r="D30" s="2">
         <v>25</v>
       </c>
@@ -5661,9 +5669,9 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="157">
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="121">
         <f>_xlfn.PERCENTILE.INC(J19:J30,0.9)</f>
         <v>15.029000000000002</v>
       </c>
@@ -5686,10 +5694,10 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="122"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="2">
         <v>26</v>
       </c>
@@ -5709,21 +5717,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J32" s="21" t="str">
-        <f>_xlfn.CONCAT("[",I32-M$30,", ",I32+M$30,"]")</f>
+        <f t="shared" ref="J32:J38" si="1">_xlfn.CONCAT("[",I32-M$30,", ",I32+M$30,"]")</f>
         <v>[-14.749, 15.309]</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
+      <c r="L32" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="2">
         <v>27</v>
       </c>
@@ -5743,19 +5751,19 @@
         <v>16.649999999999999</v>
       </c>
       <c r="J33" s="21" t="str">
-        <f>_xlfn.CONCAT("[",I33-M$30,", ",I33+M$30,"]")</f>
+        <f t="shared" si="1"/>
         <v>[1.621, 31.679]</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="2">
         <v>28</v>
       </c>
@@ -5775,19 +5783,19 @@
         <v>1.38</v>
       </c>
       <c r="J34" s="21" t="str">
-        <f>_xlfn.CONCAT("[",I34-M$30,", ",I34+M$30,"]")</f>
+        <f t="shared" si="1"/>
         <v>[-13.649, 16.409]</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
-      <c r="L34" s="127"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
@@ -5807,19 +5815,19 @@
         <v>10.8</v>
       </c>
       <c r="J35" s="21" t="str">
-        <f>_xlfn.CONCAT("[",I35-M$30,", ",I35+M$30,"]")</f>
+        <f t="shared" si="1"/>
         <v>[-4.229, 25.829]</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
       </c>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="139"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -5839,19 +5847,19 @@
         <v>5.22</v>
       </c>
       <c r="J36" s="21" t="str">
-        <f>_xlfn.CONCAT("[",I36-M$30,", ",I36+M$30,"]")</f>
+        <f t="shared" si="1"/>
         <v>[-9.809, 20.249]</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
       </c>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="139"/>
       <c r="D37" s="2">
         <v>31</v>
       </c>
@@ -5871,19 +5879,19 @@
         <v>28.5</v>
       </c>
       <c r="J37" s="21" t="str">
-        <f>_xlfn.CONCAT("[",I37-M$30,", ",I37+M$30,"]")</f>
+        <f t="shared" si="1"/>
         <v>[13.471, 43.529]</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="125"/>
-      <c r="C38" s="126"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="2">
         <v>32</v>
       </c>
@@ -5902,20 +5910,20 @@
       <c r="I38" s="18">
         <v>0</v>
       </c>
-      <c r="J38" s="158" t="str">
-        <f>_xlfn.CONCAT("[",I38-M$30,", ",I38+M$30,"]")</f>
+      <c r="J38" s="122" t="str">
+        <f t="shared" si="1"/>
         <v>[-15.029, 15.029]</v>
       </c>
-      <c r="K38" s="159">
-        <v>1</v>
-      </c>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
+      <c r="K38" s="123">
+        <v>1</v>
+      </c>
+      <c r="L38" s="142"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K39">
         <f>ROUND(AVERAGE(K32:K38),2)</f>
@@ -5975,11 +5983,11 @@
       <c r="G4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="160" t="s">
-        <v>93</v>
+      <c r="H4" s="124" t="s">
+        <v>84</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>15</v>
@@ -5989,10 +5997,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="143" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="26">
@@ -6021,14 +6029,14 @@
         <f>ROUND(J5/(LM!B$17+LM!B$18*'CP 1. part'!I5),2)</f>
         <v>0.8</v>
       </c>
-      <c r="L5" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="136"/>
+      <c r="L5" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="153"/>
     </row>
     <row r="6" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="135"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="28">
         <v>2</v>
       </c>
@@ -6055,12 +6063,12 @@
         <f>ROUND(J6/(LM!B$17+LM!B$18*'CP 1. part'!I6),2)</f>
         <v>1.03</v>
       </c>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
     </row>
     <row r="7" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="135"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="144"/>
       <c r="D7" s="28">
         <v>3</v>
       </c>
@@ -6087,12 +6095,12 @@
         <f>ROUND(J7/(LM!B$17+LM!B$18*'CP 1. part'!I7),2)</f>
         <v>0.67</v>
       </c>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="135"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="144"/>
       <c r="D8" s="28">
         <v>4</v>
       </c>
@@ -6119,16 +6127,16 @@
         <f>ROUND(J8/(LM!B$17+LM!B$18*'CP 1. part'!I8),2)</f>
         <v>0.12</v>
       </c>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="O8" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="170"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="O8" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="150"/>
     </row>
     <row r="9" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="135"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="28">
         <v>5</v>
       </c>
@@ -6155,14 +6163,14 @@
         <f>ROUND(J9/(LM!B$17+LM!B$18*'CP 1. part'!I9),2)</f>
         <v>0.2</v>
       </c>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
     </row>
     <row r="10" spans="2:17" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="135"/>
-      <c r="C10" s="129"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="28">
         <v>6</v>
       </c>
@@ -6189,16 +6197,16 @@
         <f>ROUND(J10/(LM!B$17+LM!B$18*'CP 1. part'!I10),2)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="O10" s="161" t="s">
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="O10" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="162"/>
+      <c r="P10" s="126"/>
     </row>
     <row r="11" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="135"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="28">
         <v>7</v>
       </c>
@@ -6225,18 +6233,18 @@
         <f>ROUND(J11/(LM!B$17+LM!B$18*'CP 1. part'!I11),2)</f>
         <v>0.33</v>
       </c>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="O11" s="163" t="s">
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="O11" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="164">
+      <c r="P11" s="128">
         <v>1.07</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="135"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="28">
         <v>8</v>
       </c>
@@ -6263,8 +6271,8 @@
         <f>ROUND(J12/(LM!B$17+LM!B$18*'CP 1. part'!I12),2)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
       <c r="O12" s="71" t="s">
         <v>18</v>
       </c>
@@ -6273,8 +6281,8 @@
       </c>
     </row>
     <row r="13" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="135"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="28">
         <v>9</v>
       </c>
@@ -6301,8 +6309,8 @@
         <f>ROUND(J13/(LM!B$17+LM!B$18*'CP 1. part'!I13),2)</f>
         <v>0.03</v>
       </c>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
       <c r="O13" s="71" t="s">
         <v>19</v>
       </c>
@@ -6311,8 +6319,8 @@
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="135"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="28">
         <v>10</v>
       </c>
@@ -6339,18 +6347,18 @@
         <f>ROUND(J14/(LM!B$17+LM!B$18*'CP 1. part'!I14),2)</f>
         <v>0.69</v>
       </c>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
       <c r="O14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="165" t="s">
+      <c r="P14" s="129" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="28">
         <v>11</v>
       </c>
@@ -6377,18 +6385,18 @@
         <f>ROUND(J15/(LM!B$17+LM!B$18*'CP 1. part'!I15),2)</f>
         <v>0.95</v>
       </c>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
       <c r="O15" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="165" t="s">
+      <c r="P15" s="129" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:17" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="135"/>
-      <c r="C16" s="129"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="28">
         <v>12</v>
       </c>
@@ -6415,18 +6423,18 @@
         <f>ROUND(J16/(LM!B$17+LM!B$18*'CP 1. part'!I16),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="O16" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="165" t="s">
+      <c r="P16" s="129" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="28">
         <v>13</v>
       </c>
@@ -6453,18 +6461,18 @@
         <f>ROUND(J17/(LM!B$17+LM!B$18*'CP 1. part'!I17),2)</f>
         <v>0.83</v>
       </c>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="O17" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="165" t="s">
+      <c r="P17" s="129" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="135"/>
-      <c r="C18" s="129"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="28">
         <v>14</v>
       </c>
@@ -6491,18 +6499,18 @@
         <f>ROUND(J18/(LM!B$17+LM!B$18*'CP 1. part'!I18),2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="O18" s="166" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="167">
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="O18" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="131">
         <v>1.59</v>
       </c>
     </row>
     <row r="19" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="135"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="28">
         <v>15</v>
       </c>
@@ -6529,14 +6537,14 @@
         <f>ROUND(J19/(LM!B$17+LM!B$18*'CP 1. part'!I19),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="O19" s="168"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="O19" s="132"/>
       <c r="P19" s="72"/>
     </row>
     <row r="20" spans="2:20" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="135"/>
-      <c r="C20" s="130"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="30">
         <v>16</v>
       </c>
@@ -6568,7 +6576,7 @@
         <v>1.07</v>
       </c>
       <c r="M20" s="24"/>
-      <c r="O20" s="169" t="s">
+      <c r="O20" s="133" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="104">
@@ -6576,7 +6584,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="135"/>
+      <c r="B21" s="152"/>
       <c r="I21" s="33"/>
       <c r="J21" s="51" t="s">
         <v>10</v>
@@ -6592,8 +6600,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="135"/>
-      <c r="C22" s="128" t="s">
+      <c r="B22" s="152"/>
+      <c r="C22" s="143" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="26">
@@ -6622,11 +6630,11 @@
         <f>IF(AND(H22&gt;=S22,H22&lt;=T22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
+      <c r="L22" s="153" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="46"/>
       <c r="S22" s="1">
         <f>ROUND(MAX(0,I22-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I22)),2)</f>
@@ -6638,8 +6646,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="135"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="28">
         <v>18</v>
       </c>
@@ -6663,12 +6671,12 @@
         <v>[0, 2.85]</v>
       </c>
       <c r="K23" s="35">
-        <f t="shared" ref="K22:K37" si="1">IF(AND(H23&gt;=S23,H23&lt;=T23),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
+        <f t="shared" ref="K23:K37" si="1">IF(AND(H23&gt;=S23,H23&lt;=T23),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
       <c r="O23" s="46"/>
       <c r="S23" s="1">
         <f>ROUND(MAX(0,I23-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I23)),2)</f>
@@ -6680,8 +6688,8 @@
       </c>
     </row>
     <row r="24" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="135"/>
-      <c r="C24" s="129"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="28">
         <v>19</v>
       </c>
@@ -6708,9 +6716,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
       <c r="O24" s="46"/>
       <c r="S24" s="1">
         <f>ROUND(MAX(0,I24-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I24)),2)</f>
@@ -6722,8 +6730,8 @@
       </c>
     </row>
     <row r="25" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="135"/>
-      <c r="C25" s="129"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="28">
         <v>20</v>
       </c>
@@ -6750,9 +6758,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
       <c r="O25" s="46"/>
       <c r="S25" s="1">
         <f>ROUND(MAX(0,I25-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I25)),2)</f>
@@ -6764,8 +6772,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="135"/>
-      <c r="C26" s="129"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="28">
         <v>21</v>
       </c>
@@ -6792,9 +6800,9 @@
         <f>IF(AND(H26&gt;=S26,H26&lt;=T26),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
       <c r="O26" s="46"/>
       <c r="S26" s="1">
         <f>ROUND(MAX(0,I26-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I26)),2)</f>
@@ -6806,8 +6814,8 @@
       </c>
     </row>
     <row r="27" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="135"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="144"/>
       <c r="D27" s="28">
         <v>22</v>
       </c>
@@ -6834,9 +6842,9 @@
         <f>IF(AND(H27&gt;=S27,H27&lt;=T27),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
       <c r="O27" s="46"/>
       <c r="S27" s="1">
         <f>ROUND(MAX(0,I27-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I27)),2)</f>
@@ -6848,8 +6856,8 @@
       </c>
     </row>
     <row r="28" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="135"/>
-      <c r="C28" s="129"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="28">
         <v>23</v>
       </c>
@@ -6876,9 +6884,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
       <c r="O28" s="46"/>
       <c r="S28" s="1">
         <f>ROUND(MAX(0,I28-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I28)),2)</f>
@@ -6890,8 +6898,8 @@
       </c>
     </row>
     <row r="29" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="135"/>
-      <c r="C29" s="129"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="144"/>
       <c r="D29" s="28">
         <v>24</v>
       </c>
@@ -6918,9 +6926,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
       <c r="O29" s="46"/>
       <c r="S29" s="1">
         <f>ROUND(MAX(0,I29-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I29)),2)</f>
@@ -6932,8 +6940,8 @@
       </c>
     </row>
     <row r="30" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="135"/>
-      <c r="C30" s="129"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="28">
         <v>25</v>
       </c>
@@ -6960,9 +6968,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
       <c r="O30" s="46"/>
       <c r="S30" s="1">
         <f>ROUND(MAX(0,I30-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I30)),2)</f>
@@ -6974,8 +6982,8 @@
       </c>
     </row>
     <row r="31" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="135"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="28">
         <v>26</v>
       </c>
@@ -7002,9 +7010,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
       <c r="O31" s="46"/>
       <c r="S31" s="1">
         <f>ROUND(MAX(0,I31-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I31)),2)</f>
@@ -7016,8 +7024,8 @@
       </c>
     </row>
     <row r="32" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
-      <c r="C32" s="129"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="144"/>
       <c r="D32" s="28">
         <v>27</v>
       </c>
@@ -7044,9 +7052,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
       <c r="O32" s="46"/>
       <c r="S32" s="1">
         <f>ROUND(MAX(0,I32-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I32)),2)</f>
@@ -7058,8 +7066,8 @@
       </c>
     </row>
     <row r="33" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="135"/>
-      <c r="C33" s="129"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="28">
         <v>28</v>
       </c>
@@ -7086,9 +7094,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
       <c r="O33" s="46"/>
       <c r="S33" s="1">
         <f>ROUND(MAX(0,I33-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I33)),2)</f>
@@ -7100,8 +7108,8 @@
       </c>
     </row>
     <row r="34" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="135"/>
-      <c r="C34" s="129"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="144"/>
       <c r="D34" s="28">
         <v>29</v>
       </c>
@@ -7128,9 +7136,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
       <c r="O34" s="46"/>
       <c r="S34" s="1">
         <f>ROUND(MAX(0,I34-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I34)),2)</f>
@@ -7142,8 +7150,8 @@
       </c>
     </row>
     <row r="35" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="135"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="144"/>
       <c r="D35" s="28">
         <v>30</v>
       </c>
@@ -7170,9 +7178,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
       <c r="O35" s="46"/>
       <c r="S35" s="1">
         <f>ROUND(MAX(0,I35-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I35)),2)</f>
@@ -7184,8 +7192,8 @@
       </c>
     </row>
     <row r="36" spans="2:20" s="1" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="135"/>
-      <c r="C36" s="129"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="28">
         <v>31</v>
       </c>
@@ -7212,9 +7220,9 @@
         <f>IF(AND(H36&gt;=S36,H36&lt;=T36),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
       <c r="O36" s="46"/>
       <c r="S36" s="1">
         <f>ROUND(MAX(0,I36-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I36)),2)</f>
@@ -7226,8 +7234,8 @@
       </c>
     </row>
     <row r="37" spans="2:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="135"/>
-      <c r="C37" s="130"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="145"/>
       <c r="D37" s="30">
         <v>32</v>
       </c>
@@ -7254,9 +7262,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
       <c r="O37" s="46"/>
       <c r="S37" s="1">
         <f>ROUND(MAX(0,I37-L$20*(LM!B$17+LM!B$18*'CP 1. part'!I37)),2)</f>
@@ -7291,8 +7299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9750A8F5-A2B1-4E18-9C47-5331C8CFD2B2}">
   <dimension ref="C3:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7317,11 +7325,11 @@
       <c r="F4" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="172" t="s">
-        <v>93</v>
+      <c r="G4" s="134" t="s">
+        <v>84</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>51</v>
@@ -7457,12 +7465,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
+      <c r="M7" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
       <c r="T7">
         <f>ROUND(MAX(0,H7-(LM!B$17+LM!B$18*H7)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7503,10 +7511,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="136"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="T8">
         <f>ROUND(MAX(0,H8-(LM!B$17+LM!B$18*H8)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7547,10 +7555,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
       <c r="T9">
         <f>ROUND(MAX(0,H9-(LM!B$17+LM!B$18*H9)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7591,10 +7599,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="136"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
       <c r="T10">
         <f>ROUND(MAX(0,H10-(LM!B$17+LM!B$18*H10)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7635,10 +7643,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M11" s="136"/>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="136"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
       <c r="T11">
         <f>ROUND(MAX(0,H11-(LM!B$17+LM!B$18*H11)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7679,10 +7687,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
       <c r="T12">
         <f>ROUND(MAX(0,H12-(LM!B$17+LM!B$18*H12)*'CP 1. part'!P$20),2)</f>
         <v>1.4</v>
@@ -7723,10 +7731,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
       <c r="T13">
         <f>ROUND(MAX(0,H13-(LM!B$17+LM!B$18*H13)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7767,10 +7775,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
       <c r="T14">
         <f>ROUND(MAX(0,H14-(LM!B$17+LM!B$18*H14)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7811,10 +7819,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
       <c r="T15">
         <f>ROUND(MAX(0,H15-(LM!B$17+LM!B$18*H15)*'CP 1. part'!P$20),2)</f>
         <v>6.88</v>
@@ -7855,10 +7863,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
       <c r="T16">
         <f>ROUND(MAX(0,H16-(LM!B$17+LM!B$18*H16)*'CP 1. part'!P$20),2)</f>
         <v>1.05</v>
@@ -7899,10 +7907,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
       <c r="T17">
         <f>ROUND(MAX(0,H17-(LM!B$17+LM!B$18*H17)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7943,10 +7951,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
       <c r="T18">
         <f>ROUND(MAX(0,H18-(LM!B$17+LM!B$18*H18)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -7987,10 +7995,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
       <c r="T19">
         <f>ROUND(MAX(0,H19-(LM!B$17+LM!B$18*H19)*'CP 1. part'!P$20),2)</f>
         <v>0</v>
@@ -8031,10 +8039,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
       <c r="T20">
         <f>ROUND(MAX(0,H20-(LM!B$17+LM!B$18*H20)*'CP 1. part'!P$20),2)</f>
         <v>9.16</v>
@@ -8927,29 +8935,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648CB31B-766B-41E0-BE25-19C52607D12B}">
-  <dimension ref="B4:U44"/>
+  <dimension ref="B4:X44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="6" width="5.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
     <col min="13" max="13" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="18" width="7" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" customWidth="1"/>
-    <col min="21" max="21" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C5" s="77" t="s">
         <v>0</v>
       </c>
@@ -8962,14 +8973,11 @@
       <c r="F5" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="79" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="173" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="71">
         <v>1</v>
       </c>
@@ -8985,11 +8993,11 @@
       <c r="G6" s="72">
         <v>8.4499999999999993</v>
       </c>
-      <c r="N6" s="105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M6" s="105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="71">
         <v>2</v>
       </c>
@@ -9005,11 +9013,11 @@
       <c r="G7" s="72">
         <v>9.25</v>
       </c>
-      <c r="N7" s="105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M7" s="105" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="71">
         <v>3</v>
       </c>
@@ -9025,11 +9033,11 @@
       <c r="G8" s="72">
         <v>0</v>
       </c>
-      <c r="N8" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M8" s="105" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="71">
         <v>4</v>
       </c>
@@ -9045,11 +9053,11 @@
       <c r="G9" s="72">
         <v>0</v>
       </c>
-      <c r="N9" s="105" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="71">
         <v>5</v>
       </c>
@@ -9065,8 +9073,11 @@
       <c r="G10" s="72">
         <v>9.3800000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="71">
         <v>6</v>
       </c>
@@ -9082,8 +9093,11 @@
       <c r="G11" s="72">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="71">
         <v>7</v>
       </c>
@@ -9100,7 +9114,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C13" s="71">
         <v>8</v>
       </c>
@@ -9116,12 +9130,12 @@
       <c r="G13" s="72">
         <v>4.83</v>
       </c>
-      <c r="K13" s="137" t="s">
+      <c r="K13" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="138"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L13" s="155"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C14" s="71">
         <v>9</v>
       </c>
@@ -9137,10 +9151,10 @@
       <c r="G14" s="72">
         <v>0</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="140"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C15" s="71">
         <v>10</v>
       </c>
@@ -9156,10 +9170,10 @@
       <c r="G15" s="72">
         <v>28.8</v>
       </c>
-      <c r="K15" s="139"/>
-      <c r="L15" s="140"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C16" s="71">
         <v>11</v>
       </c>
@@ -9175,10 +9189,10 @@
       <c r="G16" s="72">
         <v>5.65</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="140"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K16" s="156"/>
+      <c r="L16" s="157"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C17" s="71">
         <v>12</v>
       </c>
@@ -9194,10 +9208,10 @@
       <c r="G17" s="72">
         <v>0.05</v>
       </c>
-      <c r="K17" s="139"/>
-      <c r="L17" s="140"/>
-    </row>
-    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="156"/>
+      <c r="L17" s="157"/>
+    </row>
+    <row r="18" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="71">
         <v>13</v>
       </c>
@@ -9213,10 +9227,10 @@
       <c r="G18" s="72">
         <v>3.27</v>
       </c>
-      <c r="K18" s="141"/>
-      <c r="L18" s="142"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K18" s="158"/>
+      <c r="L18" s="159"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C19" s="71">
         <v>14</v>
       </c>
@@ -9237,7 +9251,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C20" s="71">
         <v>15</v>
       </c>
@@ -9260,7 +9274,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="73">
         <v>16</v>
       </c>
@@ -9283,25 +9297,34 @@
         <v>1</v>
       </c>
       <c r="P21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="97" t="s">
+      <c r="R21" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="98" t="s">
-        <v>69</v>
-      </c>
       <c r="S21" s="99" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="T21" s="100" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="U21" s="101" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="V21" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="W21" s="176" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" s="177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N22" s="26">
         <v>1</v>
       </c>
@@ -9330,8 +9353,17 @@
         <f>IF(O22&lt;S22,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="178" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N23" s="28">
         <v>2</v>
       </c>
@@ -9360,8 +9392,11 @@
         <f t="shared" ref="U23:U37" si="3">IF(O23&lt;S23,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V23" s="178"/>
+      <c r="W23" s="179"/>
+      <c r="X23" s="180"/>
+    </row>
+    <row r="24" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N24" s="28">
         <v>3</v>
       </c>
@@ -9390,8 +9425,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V24" s="178"/>
+      <c r="W24" s="179"/>
+      <c r="X24" s="180"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="60" t="s">
         <v>63</v>
       </c>
@@ -9441,8 +9479,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V25" s="178"/>
+      <c r="W25" s="179"/>
+      <c r="X25" s="180"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -9494,8 +9535,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V26" s="178"/>
+      <c r="W26" s="179"/>
+      <c r="X26" s="180"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="66">
         <v>2</v>
       </c>
@@ -9547,8 +9591,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V27" s="178"/>
+      <c r="W27" s="179"/>
+      <c r="X27" s="180"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="54">
         <v>3</v>
       </c>
@@ -9568,8 +9615,8 @@
         <v>1.2E-4</v>
       </c>
       <c r="H28" s="59">
-        <f t="shared" ref="G28:H29" ca="1" si="4">RAND()</f>
-        <v>0.61698554823039142</v>
+        <f ca="1">RAND()</f>
+        <v>0.19620510287109383</v>
       </c>
       <c r="N28" s="28">
         <v>7</v>
@@ -9599,8 +9646,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V28" s="178"/>
+      <c r="W28" s="179"/>
+      <c r="X28" s="180"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="54">
         <v>4</v>
       </c>
@@ -9617,8 +9667,8 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="58">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.73405916343569688</v>
+        <f t="shared" ref="G28:H29" ca="1" si="4">RAND()</f>
+        <v>0.54249040798491255</v>
       </c>
       <c r="H29" s="102">
         <v>4.2099999999999999E-2</v>
@@ -9651,8 +9701,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V29" s="178"/>
+      <c r="W29" s="179"/>
+      <c r="X29" s="180"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="54" t="s">
         <v>20</v>
       </c>
@@ -9702,8 +9755,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V30" s="178"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="180"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="54" t="s">
         <v>20</v>
       </c>
@@ -9753,8 +9809,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V31" s="178"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="180"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="54" t="s">
         <v>20</v>
       </c>
@@ -9804,10 +9863,13 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="56" t="s">
-        <v>20</v>
+      <c r="V32" s="178"/>
+      <c r="W32" s="179"/>
+      <c r="X32" s="180"/>
+    </row>
+    <row r="33" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="174" t="s">
+        <v>94</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>20</v>
@@ -9855,8 +9917,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V33" s="178"/>
+      <c r="W33" s="179"/>
+      <c r="X33" s="180"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="N34" s="28">
         <v>13</v>
       </c>
@@ -9885,8 +9950,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V34" s="178"/>
+      <c r="W34" s="179"/>
+      <c r="X34" s="180"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>66</v>
       </c>
@@ -9926,8 +9994,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V35" s="178"/>
+      <c r="W35" s="179"/>
+      <c r="X35" s="180"/>
+    </row>
+    <row r="36" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N36" s="28">
         <v>15</v>
       </c>
@@ -9956,17 +10027,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V36" s="178"/>
+      <c r="W36" s="179"/>
+      <c r="X36" s="180"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="119" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" s="30">
         <v>16</v>
@@ -9996,17 +10070,20 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V37" s="181"/>
+      <c r="W37" s="182"/>
+      <c r="X37" s="183"/>
+    </row>
+    <row r="38" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="56" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
       <c r="G38" s="104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P38" t="s">
         <v>64</v>
@@ -10027,8 +10104,14 @@
         <f>AVERAGE(U22:U37)</f>
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="W38" t="s">
+        <v>25</v>
+      </c>
+      <c r="X38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="P39" t="s">
         <v>65</v>
       </c>
@@ -10049,27 +10132,27 @@
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:24" ht="18" x14ac:dyDescent="0.35">
       <c r="K41" s="118" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L41" s="117" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="L42" s="105" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L43" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L44" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L43" s="117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L44" s="117" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10085,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5C9D6-2333-41E8-97C6-9FADE584365B}">
   <dimension ref="C4:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10099,25 +10182,25 @@
   <sheetData>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
+      <c r="C5" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="113" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="113" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10141,13 +10224,13 @@
         <v>1</v>
       </c>
       <c r="O8" s="114" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P8" s="78" t="s">
         <v>62</v>
       </c>
       <c r="Q8" s="109" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R8" s="79" t="s">
         <v>61</v>
@@ -10221,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10271,11 +10354,11 @@
       <c r="F12" s="72">
         <v>747</v>
       </c>
-      <c r="I12" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="148"/>
-      <c r="K12" s="149"/>
+      <c r="I12" s="164" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="165"/>
+      <c r="K12" s="166"/>
       <c r="M12" s="107">
         <v>5003</v>
       </c>
@@ -10310,9 +10393,9 @@
       <c r="F13" s="72">
         <v>305</v>
       </c>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="152"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="169"/>
       <c r="M13" s="107">
         <v>5004</v>
       </c>
@@ -10347,9 +10430,9 @@
       <c r="F14" s="72">
         <v>770</v>
       </c>
-      <c r="I14" s="150"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="152"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="169"/>
       <c r="M14" s="107">
         <v>5005</v>
       </c>
@@ -10384,9 +10467,9 @@
       <c r="F15" s="72">
         <v>175</v>
       </c>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="152"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
       <c r="M15" s="107">
         <v>5006</v>
       </c>
@@ -10421,9 +10504,9 @@
       <c r="F16" s="72">
         <v>247</v>
       </c>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
       <c r="M16" s="107">
         <v>5007</v>
       </c>
@@ -10733,30 +10816,30 @@
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="O27" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="9:10" ht="18" x14ac:dyDescent="0.35">
       <c r="I33" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s">
         <v>82</v>
-      </c>
-      <c r="J33" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
